--- a/Topicos Fundamentais/Top5/TRU/TRU_VA_corrente_2016.xlsx
+++ b/Topicos Fundamentais/Top5/TRU/TRU_VA_corrente_2016.xlsx
@@ -3,340 +3,343 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
-  <si>
-    <t>0191
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0191
 Agricultura, inclusive o apoio à agricultura e a pós-colheita</t>
   </si>
   <si>
-    <t>0192
+    <t xml:space="preserve">0192
 Pecuária, inclusive o apoio à pecuária</t>
   </si>
   <si>
-    <t>0280
+    <t xml:space="preserve">0280
 Produção florestal; pesca e aquicultura</t>
   </si>
   <si>
-    <t>0580
+    <t xml:space="preserve">0580
 Extração de carvão mineral e de minerais não-metálicos</t>
   </si>
   <si>
-    <t>0680
+    <t xml:space="preserve">0680
 Extração de petróleo e gás, inclusive as atividades de apoio</t>
   </si>
   <si>
-    <t>0791
+    <t xml:space="preserve">0791
 Extração de minério de ferro, inclusive beneficiamentos e a aglomeração</t>
   </si>
   <si>
-    <t>0792
+    <t xml:space="preserve">0792
 Extração de minerais metálicos não-ferrosos, inclusive beneficiamentos</t>
   </si>
   <si>
-    <t>1091
+    <t xml:space="preserve">1091
 Abate e produtos de carne, inclusive os produtos do laticínio e da pesca</t>
   </si>
   <si>
-    <t>1092
+    <t xml:space="preserve">1092
 Fabricação e refino de açúcar</t>
   </si>
   <si>
-    <t>1093
+    <t xml:space="preserve">1093
 Outros produtos alimentares</t>
   </si>
   <si>
-    <t>1100
+    <t xml:space="preserve">1100
 Fabricação de bebidas</t>
   </si>
   <si>
-    <t>1200
+    <t xml:space="preserve">1200
 Fabricação de produtos do fumo</t>
   </si>
   <si>
-    <t>1300
+    <t xml:space="preserve">1300
 Fabricação de produtos têxteis</t>
   </si>
   <si>
-    <t>1400
+    <t xml:space="preserve">1400
 Confecção de artefatos do vestuário e acessórios</t>
   </si>
   <si>
-    <t>1500
+    <t xml:space="preserve">1500
 Fabricação de calçados e de artefatos de couro</t>
   </si>
   <si>
-    <t>1600
+    <t xml:space="preserve">1600
 Fabricação de produtos da madeira</t>
   </si>
   <si>
-    <t>1700
+    <t xml:space="preserve">1700
 Fabricação de celulose, papel e produtos de papel</t>
   </si>
   <si>
-    <t>1800
+    <t xml:space="preserve">1800
 Impressão e reprodução de gravações</t>
   </si>
   <si>
-    <t>1991
+    <t xml:space="preserve">1991
 Refino de petróleo e coquerias</t>
   </si>
   <si>
-    <t>1992
+    <t xml:space="preserve">1992
 Fabricação de biocombustíveis</t>
   </si>
   <si>
-    <t>2091
+    <t xml:space="preserve">2091
 Fabricação de químicos orgânicos e inorgânicos, resinas e elastômeros</t>
   </si>
   <si>
-    <t>2092
+    <t xml:space="preserve">2092
 Fabricação de defensivos, desinfestantes, tintas e químicos diversos</t>
   </si>
   <si>
-    <t>2093
+    <t xml:space="preserve">2093
 Fabricação de produtos de limpeza, cosméticos/perfumaria e higiene pessoal</t>
   </si>
   <si>
-    <t>2100
+    <t xml:space="preserve">2100
 Fabricação de produtos farmoquímicos e farmacêuticos</t>
   </si>
   <si>
-    <t>2200
+    <t xml:space="preserve">2200
 Fabricação de produtos de borracha e de material plástico</t>
   </si>
   <si>
-    <t>2300
+    <t xml:space="preserve">2300
 Fabricação de produtos de minerais não-metálicos</t>
   </si>
   <si>
-    <t>2491
+    <t xml:space="preserve">2491
 Produção de ferro-gusa/ferroligas, siderurgia e tubos de aço sem costura</t>
   </si>
   <si>
-    <t>2492
+    <t xml:space="preserve">2492
 Metalurgia de metais não-ferrosos e a fundição de metais</t>
   </si>
   <si>
-    <t>2500
+    <t xml:space="preserve">2500
 Fabricação de produtos de metal, exceto máquinas e equipamentos</t>
   </si>
   <si>
-    <t>2600
+    <t xml:space="preserve">2600
 Fabricação de equipamentos de informática, produtos eletrônicos e ópticos</t>
   </si>
   <si>
-    <t>2700
+    <t xml:space="preserve">2700
 Fabricação de máquinas e equipamentos elétricos</t>
   </si>
   <si>
-    <t>2800
+    <t xml:space="preserve">2800
 Fabricação de máquinas e equipamentos mecânicos</t>
   </si>
   <si>
-    <t>2991
+    <t xml:space="preserve">2991
 Fabricação de automóveis, caminhões e ônibus, exceto peças</t>
   </si>
   <si>
-    <t>2992
+    <t xml:space="preserve">2992
 Fabricação de peças e acessórios para veículos automotores</t>
   </si>
   <si>
-    <t>3000
+    <t xml:space="preserve">3000
 Fabricação de outros equipamentos de transporte, exceto veículos automotores</t>
   </si>
   <si>
-    <t>3180
+    <t xml:space="preserve">3180
 Fabricação de móveis e de produtos de indústrias diversas</t>
   </si>
   <si>
-    <t>3300
+    <t xml:space="preserve">3300
 Manutenção, reparação e instalação de máquinas e equipamentos</t>
   </si>
   <si>
-    <t>3500
+    <t xml:space="preserve">3500
 Energia elétrica, gás natural e outras utilidades</t>
   </si>
   <si>
-    <t>3680
+    <t xml:space="preserve">3680
 Água, esgoto e gestão de resíduos</t>
   </si>
   <si>
-    <t>4180
+    <t xml:space="preserve">4180
 Construção</t>
   </si>
   <si>
-    <t>4500
+    <t xml:space="preserve">4500
 Comércio e reparação de veículos automotores e motocicletas</t>
   </si>
   <si>
-    <t>4680
+    <t xml:space="preserve">4680
 Comércio por atacado e a varejo, exceto veículos automotores</t>
   </si>
   <si>
-    <t>4900
+    <t xml:space="preserve">4900
 Transporte terrestre</t>
   </si>
   <si>
-    <t>5000
+    <t xml:space="preserve">5000
 Transporte aquaviário</t>
   </si>
   <si>
-    <t>5100
+    <t xml:space="preserve">5100
 Transporte aéreo</t>
   </si>
   <si>
-    <t>5280
+    <t xml:space="preserve">5280
 Armazenamento, atividades auxiliares dos transportes e correio</t>
   </si>
   <si>
-    <t>5500
+    <t xml:space="preserve">5500
 Alojamento</t>
   </si>
   <si>
-    <t>5600
+    <t xml:space="preserve">5600
 Alimentação</t>
   </si>
   <si>
-    <t>5800
+    <t xml:space="preserve">5800
 Edição e edição integrada à impressão</t>
   </si>
   <si>
-    <t>5980
+    <t xml:space="preserve">5980
 Atividades de televisão, rádio, cinema e  gravação/edição de som e imagem</t>
   </si>
   <si>
-    <t>6100
+    <t xml:space="preserve">6100
 Telecomunicações</t>
   </si>
   <si>
-    <t>6280
+    <t xml:space="preserve">6280
 Desenvolvimento de sistemas e outros serviços de informação</t>
   </si>
   <si>
-    <t>6480
+    <t xml:space="preserve">6480
 Intermediação financeira, seguros e previdência complementar</t>
   </si>
   <si>
-    <t>6800
+    <t xml:space="preserve">6800
 Atividades imobiliárias</t>
   </si>
   <si>
-    <t>6980
+    <t xml:space="preserve">6980
 Atividades jurídicas, contábeis, consultoria e sedes de empresas</t>
   </si>
   <si>
-    <t>7180
+    <t xml:space="preserve">7180
 Serviços de arquitetura, engenharia, testes/análises técnicas e P &amp; D</t>
   </si>
   <si>
-    <t>7380
+    <t xml:space="preserve">7380
 Outras atividades profissionais, científicas e técnicas</t>
   </si>
   <si>
-    <t>7700
+    <t xml:space="preserve">7700
 Aluguéis não-imobiliários e gestão de ativos de propriedade intelectual</t>
   </si>
   <si>
-    <t>7880
+    <t xml:space="preserve">7880
 Outras atividades administrativas e serviços complementares</t>
   </si>
   <si>
-    <t>8000
+    <t xml:space="preserve">8000
 Atividades de vigilância, segurança e investigação</t>
   </si>
   <si>
-    <t>8400
+    <t xml:space="preserve">8400
 Administração pública, defesa e seguridade social</t>
   </si>
   <si>
-    <t>8591
+    <t xml:space="preserve">8591
 Educação pública</t>
   </si>
   <si>
-    <t>8592
+    <t xml:space="preserve">8592
 Educação privada</t>
   </si>
   <si>
-    <t>8691
+    <t xml:space="preserve">8691
 Saúde pública</t>
   </si>
   <si>
-    <t>8692
+    <t xml:space="preserve">8692
 Saúde privada</t>
   </si>
   <si>
-    <t>9080
+    <t xml:space="preserve">9080
 Atividades artísticas, criativas e de espetáculos</t>
   </si>
   <si>
-    <t>9480
+    <t xml:space="preserve">9480
 Organizações associativas e outros serviços pessoais</t>
   </si>
   <si>
-    <t>9700
+    <t xml:space="preserve">9700
 Serviços domésticos</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
+    <t xml:space="preserve">Valor adicionado bruto ( PIB )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remunerações</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salários</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contribuições sociais efetivas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Previdência oficial /FGTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Previdência privada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contribuições sociais imputadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente operacional bruto e rendimento misto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rendimento misto bruto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excedente operacional bruto (EOB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outros impostos sobre a produção</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outros subsídios à produção</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor da produção</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fator trabalho (ocupações)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11.0"/>
-      <color indexed="8"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -347,7 +350,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -365,3151 +368,3435 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1"/>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AJ1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AK1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AM1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AN1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AO1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AP1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AQ1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AR1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AS1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AT1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AU1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AV1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AW1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AX1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AY1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AZ1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BA1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BB1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BC1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BD1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BE1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="BF1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BG1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BH1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BI1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BJ1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BK1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="BL1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BM1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BN1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="BO1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BP1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="BQ1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B2" t="n">
-        <v>203650.0</v>
+        <v>203650</v>
       </c>
       <c r="C2" t="n">
-        <v>77748.0</v>
+        <v>77748</v>
       </c>
       <c r="D2" t="n">
-        <v>25257.0</v>
+        <v>25257</v>
       </c>
       <c r="E2" t="n">
-        <v>7687.0</v>
+        <v>7687</v>
       </c>
       <c r="F2" t="n">
-        <v>22035.0</v>
+        <v>22035</v>
       </c>
       <c r="G2" t="n">
-        <v>21721.0</v>
+        <v>21721</v>
       </c>
       <c r="H2" t="n">
-        <v>4132.0</v>
+        <v>4132</v>
       </c>
       <c r="I2" t="n">
-        <v>40462.0</v>
+        <v>40462</v>
       </c>
       <c r="J2" t="n">
-        <v>11432.0</v>
+        <v>11432</v>
       </c>
       <c r="K2" t="n">
-        <v>50036.0</v>
+        <v>50036</v>
       </c>
       <c r="L2" t="n">
-        <v>20387.0</v>
+        <v>20387</v>
       </c>
       <c r="M2" t="n">
-        <v>3855.0</v>
+        <v>3855</v>
       </c>
       <c r="N2" t="n">
-        <v>13365.0</v>
+        <v>13365</v>
       </c>
       <c r="O2" t="n">
-        <v>26067.0</v>
+        <v>26067</v>
       </c>
       <c r="P2" t="n">
-        <v>14187.0</v>
+        <v>14187</v>
       </c>
       <c r="Q2" t="n">
-        <v>9613.0</v>
+        <v>9613</v>
       </c>
       <c r="R2" t="n">
-        <v>25667.0</v>
+        <v>25667</v>
       </c>
       <c r="S2" t="n">
-        <v>9279.0</v>
+        <v>9279</v>
       </c>
       <c r="T2" t="n">
-        <v>69800.0</v>
+        <v>69800</v>
       </c>
       <c r="U2" t="n">
-        <v>11207.0</v>
+        <v>11207</v>
       </c>
       <c r="V2" t="n">
-        <v>30842.0</v>
+        <v>30842</v>
       </c>
       <c r="W2" t="n">
-        <v>16061.0</v>
+        <v>16061</v>
       </c>
       <c r="X2" t="n">
-        <v>10437.0</v>
+        <v>10437</v>
       </c>
       <c r="Y2" t="n">
-        <v>26319.0</v>
+        <v>26319</v>
       </c>
       <c r="Z2" t="n">
-        <v>28452.0</v>
+        <v>28452</v>
       </c>
       <c r="AA2" t="n">
-        <v>25265.0</v>
+        <v>25265</v>
       </c>
       <c r="AB2" t="n">
-        <v>15606.0</v>
+        <v>15606</v>
       </c>
       <c r="AC2" t="n">
-        <v>12990.0</v>
+        <v>12990</v>
       </c>
       <c r="AD2" t="n">
-        <v>35240.0</v>
+        <v>35240</v>
       </c>
       <c r="AE2" t="n">
-        <v>15539.0</v>
+        <v>15539</v>
       </c>
       <c r="AF2" t="n">
-        <v>20758.0</v>
+        <v>20758</v>
       </c>
       <c r="AG2" t="n">
-        <v>33529.0</v>
+        <v>33529</v>
       </c>
       <c r="AH2" t="n">
-        <v>13674.0</v>
+        <v>13674</v>
       </c>
       <c r="AI2" t="n">
-        <v>20183.0</v>
+        <v>20183</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11700.0</v>
+        <v>11700</v>
       </c>
       <c r="AK2" t="n">
-        <v>31390.0</v>
+        <v>31390</v>
       </c>
       <c r="AL2" t="n">
-        <v>22896.0</v>
+        <v>22896</v>
       </c>
       <c r="AM2" t="n">
-        <v>100009.0</v>
+        <v>100009</v>
       </c>
       <c r="AN2" t="n">
-        <v>43711.0</v>
+        <v>43711</v>
       </c>
       <c r="AO2" t="n">
-        <v>275187.0</v>
+        <v>275187</v>
       </c>
       <c r="AP2" t="n">
-        <v>88202.0</v>
+        <v>88202</v>
       </c>
       <c r="AQ2" t="n">
-        <v>611565.0</v>
+        <v>611565</v>
       </c>
       <c r="AR2" t="n">
-        <v>147818.0</v>
+        <v>147818</v>
       </c>
       <c r="AS2" t="n">
-        <v>9502.0</v>
+        <v>9502</v>
       </c>
       <c r="AT2" t="n">
-        <v>9927.0</v>
+        <v>9927</v>
       </c>
       <c r="AU2" t="n">
-        <v>68732.0</v>
+        <v>68732</v>
       </c>
       <c r="AV2" t="n">
-        <v>13324.0</v>
+        <v>13324</v>
       </c>
       <c r="AW2" t="n">
-        <v>114505.0</v>
+        <v>114505</v>
       </c>
       <c r="AX2" t="n">
-        <v>8143.0</v>
+        <v>8143</v>
       </c>
       <c r="AY2" t="n">
-        <v>17803.0</v>
+        <v>17803</v>
       </c>
       <c r="AZ2" t="n">
-        <v>66412.0</v>
+        <v>66412</v>
       </c>
       <c r="BA2" t="n">
-        <v>86672.0</v>
+        <v>86672</v>
       </c>
       <c r="BB2" t="n">
-        <v>425532.0</v>
+        <v>425532</v>
       </c>
       <c r="BC2" t="n">
-        <v>527006.0</v>
+        <v>527006</v>
       </c>
       <c r="BD2" t="n">
-        <v>141257.0</v>
+        <v>141257</v>
       </c>
       <c r="BE2" t="n">
-        <v>39482.0</v>
+        <v>39482</v>
       </c>
       <c r="BF2" t="n">
-        <v>35175.0</v>
+        <v>35175</v>
       </c>
       <c r="BG2" t="n">
-        <v>27167.0</v>
+        <v>27167</v>
       </c>
       <c r="BH2" t="n">
-        <v>158212.0</v>
+        <v>158212</v>
       </c>
       <c r="BI2" t="n">
-        <v>33900.0</v>
+        <v>33900</v>
       </c>
       <c r="BJ2" t="n">
-        <v>544758.0</v>
+        <v>544758</v>
       </c>
       <c r="BK2" t="n">
-        <v>272681.0</v>
+        <v>272681</v>
       </c>
       <c r="BL2" t="n">
-        <v>84203.0</v>
+        <v>84203</v>
       </c>
       <c r="BM2" t="n">
-        <v>127682.0</v>
+        <v>127682</v>
       </c>
       <c r="BN2" t="n">
-        <v>141574.0</v>
+        <v>141574</v>
       </c>
       <c r="BO2" t="n">
-        <v>20405.0</v>
+        <v>20405</v>
       </c>
       <c r="BP2" t="n">
-        <v>72530.0</v>
+        <v>72530</v>
       </c>
       <c r="BQ2" t="n">
-        <v>68278.0</v>
+        <v>68278</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B3" t="n">
-        <v>30436.0</v>
+        <v>30436</v>
       </c>
       <c r="C3" t="n">
-        <v>22884.0</v>
+        <v>22884</v>
       </c>
       <c r="D3" t="n">
-        <v>2550.0</v>
+        <v>2550</v>
       </c>
       <c r="E3" t="n">
-        <v>3844.0</v>
+        <v>3844</v>
       </c>
       <c r="F3" t="n">
-        <v>21861.0</v>
+        <v>21861</v>
       </c>
       <c r="G3" t="n">
-        <v>4418.0</v>
+        <v>4418</v>
       </c>
       <c r="H3" t="n">
-        <v>2663.0</v>
+        <v>2663</v>
       </c>
       <c r="I3" t="n">
-        <v>27095.0</v>
+        <v>27095</v>
       </c>
       <c r="J3" t="n">
-        <v>9186.0</v>
+        <v>9186</v>
       </c>
       <c r="K3" t="n">
-        <v>32413.0</v>
+        <v>32413</v>
       </c>
       <c r="L3" t="n">
-        <v>8573.0</v>
+        <v>8573</v>
       </c>
       <c r="M3" t="n">
-        <v>1572.0</v>
+        <v>1572</v>
       </c>
       <c r="N3" t="n">
-        <v>9901.0</v>
+        <v>9901</v>
       </c>
       <c r="O3" t="n">
-        <v>17993.0</v>
+        <v>17993</v>
       </c>
       <c r="P3" t="n">
-        <v>10286.0</v>
+        <v>10286</v>
       </c>
       <c r="Q3" t="n">
-        <v>6110.0</v>
+        <v>6110</v>
       </c>
       <c r="R3" t="n">
-        <v>12256.0</v>
+        <v>12256</v>
       </c>
       <c r="S3" t="n">
-        <v>5483.0</v>
+        <v>5483</v>
       </c>
       <c r="T3" t="n">
-        <v>9130.0</v>
+        <v>9130</v>
       </c>
       <c r="U3" t="n">
-        <v>6724.0</v>
+        <v>6724</v>
       </c>
       <c r="V3" t="n">
-        <v>12175.0</v>
+        <v>12175</v>
       </c>
       <c r="W3" t="n">
-        <v>9166.0</v>
+        <v>9166</v>
       </c>
       <c r="X3" t="n">
-        <v>5394.0</v>
+        <v>5394</v>
       </c>
       <c r="Y3" t="n">
-        <v>11861.0</v>
+        <v>11861</v>
       </c>
       <c r="Z3" t="n">
-        <v>20293.0</v>
+        <v>20293</v>
       </c>
       <c r="AA3" t="n">
-        <v>19181.0</v>
+        <v>19181</v>
       </c>
       <c r="AB3" t="n">
-        <v>12345.0</v>
+        <v>12345</v>
       </c>
       <c r="AC3" t="n">
-        <v>5803.0</v>
+        <v>5803</v>
       </c>
       <c r="AD3" t="n">
-        <v>22652.0</v>
+        <v>22652</v>
       </c>
       <c r="AE3" t="n">
-        <v>9534.0</v>
+        <v>9534</v>
       </c>
       <c r="AF3" t="n">
-        <v>14194.0</v>
+        <v>14194</v>
       </c>
       <c r="AG3" t="n">
-        <v>27162.0</v>
+        <v>27162</v>
       </c>
       <c r="AH3" t="n">
-        <v>20076.0</v>
+        <v>20076</v>
       </c>
       <c r="AI3" t="n">
-        <v>17710.0</v>
+        <v>17710</v>
       </c>
       <c r="AJ3" t="n">
-        <v>9427.0</v>
+        <v>9427</v>
       </c>
       <c r="AK3" t="n">
-        <v>15330.0</v>
+        <v>15330</v>
       </c>
       <c r="AL3" t="n">
-        <v>11083.0</v>
+        <v>11083</v>
       </c>
       <c r="AM3" t="n">
-        <v>18809.0</v>
+        <v>18809</v>
       </c>
       <c r="AN3" t="n">
-        <v>19031.0</v>
+        <v>19031</v>
       </c>
       <c r="AO3" t="n">
-        <v>112487.0</v>
+        <v>112487</v>
       </c>
       <c r="AP3" t="n">
-        <v>43331.0</v>
+        <v>43331</v>
       </c>
       <c r="AQ3" t="n">
-        <v>320123.0</v>
+        <v>320123</v>
       </c>
       <c r="AR3" t="n">
-        <v>81580.0</v>
+        <v>81580</v>
       </c>
       <c r="AS3" t="n">
-        <v>5088.0</v>
+        <v>5088</v>
       </c>
       <c r="AT3" t="n">
-        <v>6572.0</v>
+        <v>6572</v>
       </c>
       <c r="AU3" t="n">
-        <v>43301.0</v>
+        <v>43301</v>
       </c>
       <c r="AV3" t="n">
-        <v>10348.0</v>
+        <v>10348</v>
       </c>
       <c r="AW3" t="n">
-        <v>51595.0</v>
+        <v>51595</v>
       </c>
       <c r="AX3" t="n">
-        <v>6432.0</v>
+        <v>6432</v>
       </c>
       <c r="AY3" t="n">
-        <v>10454.0</v>
+        <v>10454</v>
       </c>
       <c r="AZ3" t="n">
-        <v>17928.0</v>
+        <v>17928</v>
       </c>
       <c r="BA3" t="n">
-        <v>51039.0</v>
+        <v>51039</v>
       </c>
       <c r="BB3" t="n">
-        <v>156766.0</v>
+        <v>156766</v>
       </c>
       <c r="BC3" t="n">
-        <v>7205.0</v>
+        <v>7205</v>
       </c>
       <c r="BD3" t="n">
-        <v>58462.0</v>
+        <v>58462</v>
       </c>
       <c r="BE3" t="n">
-        <v>20953.0</v>
+        <v>20953</v>
       </c>
       <c r="BF3" t="n">
-        <v>13110.0</v>
+        <v>13110</v>
       </c>
       <c r="BG3" t="n">
-        <v>10812.0</v>
+        <v>10812</v>
       </c>
       <c r="BH3" t="n">
-        <v>104584.0</v>
+        <v>104584</v>
       </c>
       <c r="BI3" t="n">
-        <v>30029.0</v>
+        <v>30029</v>
       </c>
       <c r="BJ3" t="n">
-        <v>465387.0</v>
+        <v>465387</v>
       </c>
       <c r="BK3" t="n">
-        <v>260097.0</v>
+        <v>260097</v>
       </c>
       <c r="BL3" t="n">
-        <v>75467.0</v>
+        <v>75467</v>
       </c>
       <c r="BM3" t="n">
-        <v>121521.0</v>
+        <v>121521</v>
       </c>
       <c r="BN3" t="n">
-        <v>71126.0</v>
+        <v>71126</v>
       </c>
       <c r="BO3" t="n">
-        <v>11995.0</v>
+        <v>11995</v>
       </c>
       <c r="BP3" t="n">
-        <v>39762.0</v>
+        <v>39762</v>
       </c>
       <c r="BQ3" t="n">
-        <v>68278.0</v>
+        <v>68278</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B4" t="n">
-        <v>25835.0</v>
+        <v>25835</v>
       </c>
       <c r="C4" t="n">
-        <v>19912.0</v>
+        <v>19912</v>
       </c>
       <c r="D4" t="n">
-        <v>2095.0</v>
+        <v>2095</v>
       </c>
       <c r="E4" t="n">
-        <v>3075.0</v>
+        <v>3075</v>
       </c>
       <c r="F4" t="n">
-        <v>15933.0</v>
+        <v>15933</v>
       </c>
       <c r="G4" t="n">
-        <v>3527.0</v>
+        <v>3527</v>
       </c>
       <c r="H4" t="n">
-        <v>2042.0</v>
+        <v>2042</v>
       </c>
       <c r="I4" t="n">
-        <v>21164.0</v>
+        <v>21164</v>
       </c>
       <c r="J4" t="n">
-        <v>6773.0</v>
+        <v>6773</v>
       </c>
       <c r="K4" t="n">
-        <v>25574.0</v>
+        <v>25574</v>
       </c>
       <c r="L4" t="n">
-        <v>6672.0</v>
+        <v>6672</v>
       </c>
       <c r="M4" t="n">
-        <v>1207.0</v>
+        <v>1207</v>
       </c>
       <c r="N4" t="n">
-        <v>8096.0</v>
+        <v>8096</v>
       </c>
       <c r="O4" t="n">
-        <v>14158.0</v>
+        <v>14158</v>
       </c>
       <c r="P4" t="n">
-        <v>8481.0</v>
+        <v>8481</v>
       </c>
       <c r="Q4" t="n">
-        <v>5041.0</v>
+        <v>5041</v>
       </c>
       <c r="R4" t="n">
-        <v>9702.0</v>
+        <v>9702</v>
       </c>
       <c r="S4" t="n">
-        <v>4452.0</v>
+        <v>4452</v>
       </c>
       <c r="T4" t="n">
-        <v>6283.0</v>
+        <v>6283</v>
       </c>
       <c r="U4" t="n">
-        <v>5175.0</v>
+        <v>5175</v>
       </c>
       <c r="V4" t="n">
-        <v>9284.0</v>
+        <v>9284</v>
       </c>
       <c r="W4" t="n">
-        <v>7078.0</v>
+        <v>7078</v>
       </c>
       <c r="X4" t="n">
-        <v>4266.0</v>
+        <v>4266</v>
       </c>
       <c r="Y4" t="n">
-        <v>9106.0</v>
+        <v>9106</v>
       </c>
       <c r="Z4" t="n">
-        <v>15856.0</v>
+        <v>15856</v>
       </c>
       <c r="AA4" t="n">
-        <v>15547.0</v>
+        <v>15547</v>
       </c>
       <c r="AB4" t="n">
-        <v>9629.0</v>
+        <v>9629</v>
       </c>
       <c r="AC4" t="n">
-        <v>4669.0</v>
+        <v>4669</v>
       </c>
       <c r="AD4" t="n">
-        <v>17901.0</v>
+        <v>17901</v>
       </c>
       <c r="AE4" t="n">
-        <v>7554.0</v>
+        <v>7554</v>
       </c>
       <c r="AF4" t="n">
-        <v>11170.0</v>
+        <v>11170</v>
       </c>
       <c r="AG4" t="n">
-        <v>21594.0</v>
+        <v>21594</v>
       </c>
       <c r="AH4" t="n">
-        <v>15539.0</v>
+        <v>15539</v>
       </c>
       <c r="AI4" t="n">
-        <v>14907.0</v>
+        <v>14907</v>
       </c>
       <c r="AJ4" t="n">
-        <v>7654.0</v>
+        <v>7654</v>
       </c>
       <c r="AK4" t="n">
-        <v>12574.0</v>
+        <v>12574</v>
       </c>
       <c r="AL4" t="n">
-        <v>9024.0</v>
+        <v>9024</v>
       </c>
       <c r="AM4" t="n">
-        <v>13326.0</v>
+        <v>13326</v>
       </c>
       <c r="AN4" t="n">
-        <v>14313.0</v>
+        <v>14313</v>
       </c>
       <c r="AO4" t="n">
-        <v>91647.0</v>
+        <v>91647</v>
       </c>
       <c r="AP4" t="n">
-        <v>35296.0</v>
+        <v>35296</v>
       </c>
       <c r="AQ4" t="n">
-        <v>254819.0</v>
+        <v>254819</v>
       </c>
       <c r="AR4" t="n">
-        <v>66374.0</v>
+        <v>66374</v>
       </c>
       <c r="AS4" t="n">
-        <v>4169.0</v>
+        <v>4169</v>
       </c>
       <c r="AT4" t="n">
-        <v>5460.0</v>
+        <v>5460</v>
       </c>
       <c r="AU4" t="n">
-        <v>33565.0</v>
+        <v>33565</v>
       </c>
       <c r="AV4" t="n">
-        <v>8690.0</v>
+        <v>8690</v>
       </c>
       <c r="AW4" t="n">
-        <v>43392.0</v>
+        <v>43392</v>
       </c>
       <c r="AX4" t="n">
-        <v>5200.0</v>
+        <v>5200</v>
       </c>
       <c r="AY4" t="n">
-        <v>8763.0</v>
+        <v>8763</v>
       </c>
       <c r="AZ4" t="n">
-        <v>13352.0</v>
+        <v>13352</v>
       </c>
       <c r="BA4" t="n">
-        <v>40449.0</v>
+        <v>40449</v>
       </c>
       <c r="BB4" t="n">
-        <v>120855.0</v>
+        <v>120855</v>
       </c>
       <c r="BC4" t="n">
-        <v>5723.0</v>
+        <v>5723</v>
       </c>
       <c r="BD4" t="n">
-        <v>47758.0</v>
+        <v>47758</v>
       </c>
       <c r="BE4" t="n">
-        <v>16875.0</v>
+        <v>16875</v>
       </c>
       <c r="BF4" t="n">
-        <v>10452.0</v>
+        <v>10452</v>
       </c>
       <c r="BG4" t="n">
-        <v>8611.0</v>
+        <v>8611</v>
       </c>
       <c r="BH4" t="n">
-        <v>84172.0</v>
+        <v>84172</v>
       </c>
       <c r="BI4" t="n">
-        <v>23595.0</v>
+        <v>23595</v>
       </c>
       <c r="BJ4" t="n">
-        <v>334982.0</v>
+        <v>334982</v>
       </c>
       <c r="BK4" t="n">
-        <v>218198.0</v>
+        <v>218198</v>
       </c>
       <c r="BL4" t="n">
-        <v>62411.0</v>
+        <v>62411</v>
       </c>
       <c r="BM4" t="n">
-        <v>98679.0</v>
+        <v>98679</v>
       </c>
       <c r="BN4" t="n">
-        <v>61173.0</v>
+        <v>61173</v>
       </c>
       <c r="BO4" t="n">
-        <v>10275.0</v>
+        <v>10275</v>
       </c>
       <c r="BP4" t="n">
-        <v>33579.0</v>
+        <v>33579</v>
       </c>
       <c r="BQ4" t="n">
-        <v>64590.0</v>
+        <v>64590</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B5" t="n">
-        <v>4601.0</v>
+        <v>4601</v>
       </c>
       <c r="C5" t="n">
-        <v>2972.0</v>
+        <v>2972</v>
       </c>
       <c r="D5" t="n">
-        <v>455.0</v>
+        <v>455</v>
       </c>
       <c r="E5" t="n">
-        <v>769.0</v>
+        <v>769</v>
       </c>
       <c r="F5" t="n">
-        <v>5928.0</v>
+        <v>5928</v>
       </c>
       <c r="G5" t="n">
-        <v>891.0</v>
+        <v>891</v>
       </c>
       <c r="H5" t="n">
-        <v>621.0</v>
+        <v>621</v>
       </c>
       <c r="I5" t="n">
-        <v>5931.0</v>
+        <v>5931</v>
       </c>
       <c r="J5" t="n">
-        <v>2413.0</v>
+        <v>2413</v>
       </c>
       <c r="K5" t="n">
-        <v>6839.0</v>
+        <v>6839</v>
       </c>
       <c r="L5" t="n">
-        <v>1901.0</v>
+        <v>1901</v>
       </c>
       <c r="M5" t="n">
-        <v>365.0</v>
+        <v>365</v>
       </c>
       <c r="N5" t="n">
-        <v>1805.0</v>
+        <v>1805</v>
       </c>
       <c r="O5" t="n">
-        <v>3835.0</v>
+        <v>3835</v>
       </c>
       <c r="P5" t="n">
-        <v>1805.0</v>
+        <v>1805</v>
       </c>
       <c r="Q5" t="n">
-        <v>1069.0</v>
+        <v>1069</v>
       </c>
       <c r="R5" t="n">
-        <v>2554.0</v>
+        <v>2554</v>
       </c>
       <c r="S5" t="n">
-        <v>1031.0</v>
+        <v>1031</v>
       </c>
       <c r="T5" t="n">
-        <v>2847.0</v>
+        <v>2847</v>
       </c>
       <c r="U5" t="n">
-        <v>1549.0</v>
+        <v>1549</v>
       </c>
       <c r="V5" t="n">
-        <v>2891.0</v>
+        <v>2891</v>
       </c>
       <c r="W5" t="n">
-        <v>2088.0</v>
+        <v>2088</v>
       </c>
       <c r="X5" t="n">
-        <v>1128.0</v>
+        <v>1128</v>
       </c>
       <c r="Y5" t="n">
-        <v>2755.0</v>
+        <v>2755</v>
       </c>
       <c r="Z5" t="n">
-        <v>4437.0</v>
+        <v>4437</v>
       </c>
       <c r="AA5" t="n">
-        <v>3634.0</v>
+        <v>3634</v>
       </c>
       <c r="AB5" t="n">
-        <v>2716.0</v>
+        <v>2716</v>
       </c>
       <c r="AC5" t="n">
-        <v>1134.0</v>
+        <v>1134</v>
       </c>
       <c r="AD5" t="n">
-        <v>4751.0</v>
+        <v>4751</v>
       </c>
       <c r="AE5" t="n">
-        <v>1980.0</v>
+        <v>1980</v>
       </c>
       <c r="AF5" t="n">
-        <v>3024.0</v>
+        <v>3024</v>
       </c>
       <c r="AG5" t="n">
-        <v>5568.0</v>
+        <v>5568</v>
       </c>
       <c r="AH5" t="n">
-        <v>4537.0</v>
+        <v>4537</v>
       </c>
       <c r="AI5" t="n">
-        <v>2803.0</v>
+        <v>2803</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1773.0</v>
+        <v>1773</v>
       </c>
       <c r="AK5" t="n">
-        <v>2756.0</v>
+        <v>2756</v>
       </c>
       <c r="AL5" t="n">
-        <v>2059.0</v>
+        <v>2059</v>
       </c>
       <c r="AM5" t="n">
-        <v>5483.0</v>
+        <v>5483</v>
       </c>
       <c r="AN5" t="n">
-        <v>4718.0</v>
+        <v>4718</v>
       </c>
       <c r="AO5" t="n">
-        <v>20840.0</v>
+        <v>20840</v>
       </c>
       <c r="AP5" t="n">
-        <v>8035.0</v>
+        <v>8035</v>
       </c>
       <c r="AQ5" t="n">
-        <v>65304.0</v>
+        <v>65304</v>
       </c>
       <c r="AR5" t="n">
-        <v>15206.0</v>
+        <v>15206</v>
       </c>
       <c r="AS5" t="n">
-        <v>919.0</v>
+        <v>919</v>
       </c>
       <c r="AT5" t="n">
-        <v>1112.0</v>
+        <v>1112</v>
       </c>
       <c r="AU5" t="n">
-        <v>9736.0</v>
+        <v>9736</v>
       </c>
       <c r="AV5" t="n">
-        <v>1658.0</v>
+        <v>1658</v>
       </c>
       <c r="AW5" t="n">
-        <v>8203.0</v>
+        <v>8203</v>
       </c>
       <c r="AX5" t="n">
-        <v>1232.0</v>
+        <v>1232</v>
       </c>
       <c r="AY5" t="n">
-        <v>1691.0</v>
+        <v>1691</v>
       </c>
       <c r="AZ5" t="n">
-        <v>4576.0</v>
+        <v>4576</v>
       </c>
       <c r="BA5" t="n">
-        <v>10590.0</v>
+        <v>10590</v>
       </c>
       <c r="BB5" t="n">
-        <v>35911.0</v>
+        <v>35911</v>
       </c>
       <c r="BC5" t="n">
-        <v>1482.0</v>
+        <v>1482</v>
       </c>
       <c r="BD5" t="n">
-        <v>10704.0</v>
+        <v>10704</v>
       </c>
       <c r="BE5" t="n">
-        <v>4078.0</v>
+        <v>4078</v>
       </c>
       <c r="BF5" t="n">
-        <v>2658.0</v>
+        <v>2658</v>
       </c>
       <c r="BG5" t="n">
-        <v>2201.0</v>
+        <v>2201</v>
       </c>
       <c r="BH5" t="n">
-        <v>20412.0</v>
+        <v>20412</v>
       </c>
       <c r="BI5" t="n">
-        <v>6434.0</v>
+        <v>6434</v>
       </c>
       <c r="BJ5" t="n">
-        <v>60869.0</v>
+        <v>60869</v>
       </c>
       <c r="BK5" t="n">
-        <v>38870.0</v>
+        <v>38870</v>
       </c>
       <c r="BL5" t="n">
-        <v>13056.0</v>
+        <v>13056</v>
       </c>
       <c r="BM5" t="n">
-        <v>17062.0</v>
+        <v>17062</v>
       </c>
       <c r="BN5" t="n">
-        <v>9953.0</v>
+        <v>9953</v>
       </c>
       <c r="BO5" t="n">
-        <v>1720.0</v>
+        <v>1720</v>
       </c>
       <c r="BP5" t="n">
-        <v>6183.0</v>
+        <v>6183</v>
       </c>
       <c r="BQ5" t="n">
-        <v>3688.0</v>
+        <v>3688</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B6" t="n">
-        <v>4600.0</v>
+        <v>4600</v>
       </c>
       <c r="C6" t="n">
-        <v>2971.0</v>
+        <v>2971</v>
       </c>
       <c r="D6" t="n">
-        <v>453.0</v>
+        <v>453</v>
       </c>
       <c r="E6" t="n">
-        <v>761.0</v>
+        <v>761</v>
       </c>
       <c r="F6" t="n">
-        <v>4686.0</v>
+        <v>4686</v>
       </c>
       <c r="G6" t="n">
-        <v>862.0</v>
+        <v>862</v>
       </c>
       <c r="H6" t="n">
-        <v>594.0</v>
+        <v>594</v>
       </c>
       <c r="I6" t="n">
-        <v>5818.0</v>
+        <v>5818</v>
       </c>
       <c r="J6" t="n">
-        <v>2388.0</v>
+        <v>2388</v>
       </c>
       <c r="K6" t="n">
-        <v>6670.0</v>
+        <v>6670</v>
       </c>
       <c r="L6" t="n">
-        <v>1839.0</v>
+        <v>1839</v>
       </c>
       <c r="M6" t="n">
-        <v>335.0</v>
+        <v>335</v>
       </c>
       <c r="N6" t="n">
-        <v>1782.0</v>
+        <v>1782</v>
       </c>
       <c r="O6" t="n">
-        <v>3795.0</v>
+        <v>3795</v>
       </c>
       <c r="P6" t="n">
-        <v>1783.0</v>
+        <v>1783</v>
       </c>
       <c r="Q6" t="n">
-        <v>1036.0</v>
+        <v>1036</v>
       </c>
       <c r="R6" t="n">
-        <v>2325.0</v>
+        <v>2325</v>
       </c>
       <c r="S6" t="n">
-        <v>1001.0</v>
+        <v>1001</v>
       </c>
       <c r="T6" t="n">
-        <v>2171.0</v>
+        <v>2171</v>
       </c>
       <c r="U6" t="n">
-        <v>1519.0</v>
+        <v>1519</v>
       </c>
       <c r="V6" t="n">
-        <v>2654.0</v>
+        <v>2654</v>
       </c>
       <c r="W6" t="n">
-        <v>1938.0</v>
+        <v>1938</v>
       </c>
       <c r="X6" t="n">
-        <v>1103.0</v>
+        <v>1103</v>
       </c>
       <c r="Y6" t="n">
-        <v>2608.0</v>
+        <v>2608</v>
       </c>
       <c r="Z6" t="n">
-        <v>4337.0</v>
+        <v>4337</v>
       </c>
       <c r="AA6" t="n">
-        <v>3507.0</v>
+        <v>3507</v>
       </c>
       <c r="AB6" t="n">
-        <v>2492.0</v>
+        <v>2492</v>
       </c>
       <c r="AC6" t="n">
-        <v>1083.0</v>
+        <v>1083</v>
       </c>
       <c r="AD6" t="n">
-        <v>4663.0</v>
+        <v>4663</v>
       </c>
       <c r="AE6" t="n">
-        <v>1935.0</v>
+        <v>1935</v>
       </c>
       <c r="AF6" t="n">
-        <v>2931.0</v>
+        <v>2931</v>
       </c>
       <c r="AG6" t="n">
-        <v>5366.0</v>
+        <v>5366</v>
       </c>
       <c r="AH6" t="n">
-        <v>4357.0</v>
+        <v>4357</v>
       </c>
       <c r="AI6" t="n">
-        <v>2721.0</v>
+        <v>2721</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1656.0</v>
+        <v>1656</v>
       </c>
       <c r="AK6" t="n">
-        <v>2703.0</v>
+        <v>2703</v>
       </c>
       <c r="AL6" t="n">
-        <v>1989.0</v>
+        <v>1989</v>
       </c>
       <c r="AM6" t="n">
-        <v>4293.0</v>
+        <v>4293</v>
       </c>
       <c r="AN6" t="n">
-        <v>4310.0</v>
+        <v>4310</v>
       </c>
       <c r="AO6" t="n">
-        <v>20490.0</v>
+        <v>20490</v>
       </c>
       <c r="AP6" t="n">
-        <v>7983.0</v>
+        <v>7983</v>
       </c>
       <c r="AQ6" t="n">
-        <v>64506.0</v>
+        <v>64506</v>
       </c>
       <c r="AR6" t="n">
-        <v>14760.0</v>
+        <v>14760</v>
       </c>
       <c r="AS6" t="n">
-        <v>889.0</v>
+        <v>889</v>
       </c>
       <c r="AT6" t="n">
-        <v>1091.0</v>
+        <v>1091</v>
       </c>
       <c r="AU6" t="n">
-        <v>8682.0</v>
+        <v>8682</v>
       </c>
       <c r="AV6" t="n">
-        <v>1627.0</v>
+        <v>1627</v>
       </c>
       <c r="AW6" t="n">
-        <v>8153.0</v>
+        <v>8153</v>
       </c>
       <c r="AX6" t="n">
-        <v>1204.0</v>
+        <v>1204</v>
       </c>
       <c r="AY6" t="n">
-        <v>1638.0</v>
+        <v>1638</v>
       </c>
       <c r="AZ6" t="n">
-        <v>3778.0</v>
+        <v>3778</v>
       </c>
       <c r="BA6" t="n">
-        <v>10031.0</v>
+        <v>10031</v>
       </c>
       <c r="BB6" t="n">
-        <v>30480.0</v>
+        <v>30480</v>
       </c>
       <c r="BC6" t="n">
-        <v>1441.0</v>
+        <v>1441</v>
       </c>
       <c r="BD6" t="n">
-        <v>9731.0</v>
+        <v>9731</v>
       </c>
       <c r="BE6" t="n">
-        <v>3953.0</v>
+        <v>3953</v>
       </c>
       <c r="BF6" t="n">
-        <v>2629.0</v>
+        <v>2629</v>
       </c>
       <c r="BG6" t="n">
-        <v>2166.0</v>
+        <v>2166</v>
       </c>
       <c r="BH6" t="n">
-        <v>20213.0</v>
+        <v>20213</v>
       </c>
       <c r="BI6" t="n">
-        <v>6385.0</v>
+        <v>6385</v>
       </c>
       <c r="BJ6" t="n">
-        <v>60337.0</v>
+        <v>60337</v>
       </c>
       <c r="BK6" t="n">
-        <v>38781.0</v>
+        <v>38781</v>
       </c>
       <c r="BL6" t="n">
-        <v>13036.0</v>
+        <v>13036</v>
       </c>
       <c r="BM6" t="n">
-        <v>17042.0</v>
+        <v>17042</v>
       </c>
       <c r="BN6" t="n">
-        <v>9906.0</v>
+        <v>9906</v>
       </c>
       <c r="BO6" t="n">
-        <v>1686.0</v>
+        <v>1686</v>
       </c>
       <c r="BP6" t="n">
-        <v>6096.0</v>
+        <v>6096</v>
       </c>
       <c r="BQ6" t="n">
-        <v>3688.0</v>
+        <v>3688</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B7" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="F7" t="n">
-        <v>1242.0</v>
+        <v>1242</v>
       </c>
       <c r="G7" t="n">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="H7" t="n">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="I7" t="n">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="J7" t="n">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="K7" t="n">
-        <v>169.0</v>
+        <v>169</v>
       </c>
       <c r="L7" t="n">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="M7" t="n">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="N7" t="n">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="O7" t="n">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="P7" t="n">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="Q7" t="n">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="R7" t="n">
-        <v>229.0</v>
+        <v>229</v>
       </c>
       <c r="S7" t="n">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="T7" t="n">
-        <v>676.0</v>
+        <v>676</v>
       </c>
       <c r="U7" t="n">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="V7" t="n">
-        <v>237.0</v>
+        <v>237</v>
       </c>
       <c r="W7" t="n">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="X7" t="n">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="Y7" t="n">
-        <v>147.0</v>
+        <v>147</v>
       </c>
       <c r="Z7" t="n">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="AA7" t="n">
-        <v>127.0</v>
+        <v>127</v>
       </c>
       <c r="AB7" t="n">
-        <v>224.0</v>
+        <v>224</v>
       </c>
       <c r="AC7" t="n">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="AD7" t="n">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="AE7" t="n">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="AF7" t="n">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="AG7" t="n">
-        <v>202.0</v>
+        <v>202</v>
       </c>
       <c r="AH7" t="n">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="AI7" t="n">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="AJ7" t="n">
-        <v>117.0</v>
+        <v>117</v>
       </c>
       <c r="AK7" t="n">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="AL7" t="n">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="AM7" t="n">
-        <v>1190.0</v>
+        <v>1190</v>
       </c>
       <c r="AN7" t="n">
-        <v>408.0</v>
+        <v>408</v>
       </c>
       <c r="AO7" t="n">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="AP7" t="n">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="AQ7" t="n">
-        <v>798.0</v>
+        <v>798</v>
       </c>
       <c r="AR7" t="n">
-        <v>446.0</v>
+        <v>446</v>
       </c>
       <c r="AS7" t="n">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="AT7" t="n">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="AU7" t="n">
-        <v>1054.0</v>
+        <v>1054</v>
       </c>
       <c r="AV7" t="n">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="AW7" t="n">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="AX7" t="n">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="AY7" t="n">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="AZ7" t="n">
-        <v>798.0</v>
+        <v>798</v>
       </c>
       <c r="BA7" t="n">
-        <v>559.0</v>
+        <v>559</v>
       </c>
       <c r="BB7" t="n">
-        <v>5431.0</v>
+        <v>5431</v>
       </c>
       <c r="BC7" t="n">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="BD7" t="n">
-        <v>973.0</v>
+        <v>973</v>
       </c>
       <c r="BE7" t="n">
-        <v>125.0</v>
+        <v>125</v>
       </c>
       <c r="BF7" t="n">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="BG7" t="n">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="BH7" t="n">
-        <v>199.0</v>
+        <v>199</v>
       </c>
       <c r="BI7" t="n">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="BJ7" t="n">
-        <v>532.0</v>
+        <v>532</v>
       </c>
       <c r="BK7" t="n">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="BL7" t="n">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="BM7" t="n">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="BN7" t="n">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="BO7" t="n">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="BP7" t="n">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BJ8" t="n">
-        <v>69536.0</v>
+        <v>69536</v>
       </c>
       <c r="BK8" t="n">
-        <v>3029.0</v>
+        <v>3029</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BM8" t="n">
-        <v>5780.0</v>
+        <v>5780</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B9" t="n">
-        <v>183900.0</v>
+        <v>183900</v>
       </c>
       <c r="C9" t="n">
-        <v>54402.0</v>
+        <v>54402</v>
       </c>
       <c r="D9" t="n">
-        <v>22618.0</v>
+        <v>22618</v>
       </c>
       <c r="E9" t="n">
-        <v>3762.0</v>
+        <v>3762</v>
       </c>
       <c r="F9" t="n">
-        <v>-890.0</v>
+        <v>-890</v>
       </c>
       <c r="G9" t="n">
-        <v>16980.0</v>
+        <v>16980</v>
       </c>
       <c r="H9" t="n">
-        <v>1323.0</v>
+        <v>1323</v>
       </c>
       <c r="I9" t="n">
-        <v>11363.0</v>
+        <v>11363</v>
       </c>
       <c r="J9" t="n">
-        <v>1672.0</v>
+        <v>1672</v>
       </c>
       <c r="K9" t="n">
-        <v>15344.0</v>
+        <v>15344</v>
       </c>
       <c r="L9" t="n">
-        <v>11162.0</v>
+        <v>11162</v>
       </c>
       <c r="M9" t="n">
-        <v>2172.0</v>
+        <v>2172</v>
       </c>
       <c r="N9" t="n">
-        <v>3049.0</v>
+        <v>3049</v>
       </c>
       <c r="O9" t="n">
-        <v>7458.0</v>
+        <v>7458</v>
       </c>
       <c r="P9" t="n">
-        <v>3457.0</v>
+        <v>3457</v>
       </c>
       <c r="Q9" t="n">
-        <v>3294.0</v>
+        <v>3294</v>
       </c>
       <c r="R9" t="n">
-        <v>12803.0</v>
+        <v>12803</v>
       </c>
       <c r="S9" t="n">
-        <v>3553.0</v>
+        <v>3553</v>
       </c>
       <c r="T9" t="n">
-        <v>59871.0</v>
+        <v>59871</v>
       </c>
       <c r="U9" t="n">
-        <v>4308.0</v>
+        <v>4308</v>
       </c>
       <c r="V9" t="n">
-        <v>17625.0</v>
+        <v>17625</v>
       </c>
       <c r="W9" t="n">
-        <v>6268.0</v>
+        <v>6268</v>
       </c>
       <c r="X9" t="n">
-        <v>4655.0</v>
+        <v>4655</v>
       </c>
       <c r="Y9" t="n">
-        <v>13920.0</v>
+        <v>13920</v>
       </c>
       <c r="Z9" t="n">
-        <v>7340.0</v>
+        <v>7340</v>
       </c>
       <c r="AA9" t="n">
-        <v>5378.0</v>
+        <v>5378</v>
       </c>
       <c r="AB9" t="n">
-        <v>2558.0</v>
+        <v>2558</v>
       </c>
       <c r="AC9" t="n">
-        <v>6811.0</v>
+        <v>6811</v>
       </c>
       <c r="AD9" t="n">
-        <v>11720.0</v>
+        <v>11720</v>
       </c>
       <c r="AE9" t="n">
-        <v>5288.0</v>
+        <v>5288</v>
       </c>
       <c r="AF9" t="n">
-        <v>5951.0</v>
+        <v>5951</v>
       </c>
       <c r="AG9" t="n">
-        <v>5459.0</v>
+        <v>5459</v>
       </c>
       <c r="AH9" t="n">
-        <v>-7218.0</v>
+        <v>-7218</v>
       </c>
       <c r="AI9" t="n">
-        <v>1929.0</v>
+        <v>1929</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1881.0</v>
+        <v>1881</v>
       </c>
       <c r="AK9" t="n">
-        <v>15439.0</v>
+        <v>15439</v>
       </c>
       <c r="AL9" t="n">
-        <v>11400.0</v>
+        <v>11400</v>
       </c>
       <c r="AM9" t="n">
-        <v>79998.0</v>
+        <v>79998</v>
       </c>
       <c r="AN9" t="n">
-        <v>23983.0</v>
+        <v>23983</v>
       </c>
       <c r="AO9" t="n">
-        <v>159216.0</v>
+        <v>159216</v>
       </c>
       <c r="AP9" t="n">
-        <v>43552.0</v>
+        <v>43552</v>
       </c>
       <c r="AQ9" t="n">
-        <v>282213.0</v>
+        <v>282213</v>
       </c>
       <c r="AR9" t="n">
-        <v>65862.0</v>
+        <v>65862</v>
       </c>
       <c r="AS9" t="n">
-        <v>4029.0</v>
+        <v>4029</v>
       </c>
       <c r="AT9" t="n">
-        <v>2818.0</v>
+        <v>2818</v>
       </c>
       <c r="AU9" t="n">
-        <v>23913.0</v>
+        <v>23913</v>
       </c>
       <c r="AV9" t="n">
-        <v>2630.0</v>
+        <v>2630</v>
       </c>
       <c r="AW9" t="n">
-        <v>61435.0</v>
+        <v>61435</v>
       </c>
       <c r="AX9" t="n">
-        <v>1467.0</v>
+        <v>1467</v>
       </c>
       <c r="AY9" t="n">
-        <v>6309.0</v>
+        <v>6309</v>
       </c>
       <c r="AZ9" t="n">
-        <v>43933.0</v>
+        <v>43933</v>
       </c>
       <c r="BA9" t="n">
-        <v>33945.0</v>
+        <v>33945</v>
       </c>
       <c r="BB9" t="n">
-        <v>261574.0</v>
+        <v>261574</v>
       </c>
       <c r="BC9" t="n">
-        <v>519378.0</v>
+        <v>519378</v>
       </c>
       <c r="BD9" t="n">
-        <v>80445.0</v>
+        <v>80445</v>
       </c>
       <c r="BE9" t="n">
-        <v>18526.0</v>
+        <v>18526</v>
       </c>
       <c r="BF9" t="n">
-        <v>21628.0</v>
+        <v>21628</v>
       </c>
       <c r="BG9" t="n">
-        <v>16147.0</v>
+        <v>16147</v>
       </c>
       <c r="BH9" t="n">
-        <v>50818.0</v>
+        <v>50818</v>
       </c>
       <c r="BI9" t="n">
-        <v>2203.0</v>
+        <v>2203</v>
       </c>
       <c r="BJ9" t="n">
-        <v>79231.0</v>
+        <v>79231</v>
       </c>
       <c r="BK9" t="n">
-        <v>12566.0</v>
+        <v>12566</v>
       </c>
       <c r="BL9" t="n">
-        <v>6656.0</v>
+        <v>6656</v>
       </c>
       <c r="BM9" t="n">
-        <v>6161.0</v>
+        <v>6161</v>
       </c>
       <c r="BN9" t="n">
-        <v>68063.0</v>
+        <v>68063</v>
       </c>
       <c r="BO9" t="n">
-        <v>8143.0</v>
+        <v>8143</v>
       </c>
       <c r="BP9" t="n">
-        <v>31675.0</v>
+        <v>31675</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B10" t="n">
-        <v>94570.0</v>
+        <v>94570</v>
       </c>
       <c r="C10" t="n">
-        <v>41779.0</v>
+        <v>41779</v>
       </c>
       <c r="D10" t="n">
-        <v>11428.0</v>
+        <v>11428</v>
       </c>
       <c r="E10" t="n">
-        <v>240.0</v>
+        <v>240</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>355.0</v>
+        <v>355</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>3054.0</v>
+        <v>3054</v>
       </c>
       <c r="L10" t="n">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1374.0</v>
+        <v>1374</v>
       </c>
       <c r="O10" t="n">
-        <v>5938.0</v>
+        <v>5938</v>
       </c>
       <c r="P10" t="n">
-        <v>581.0</v>
+        <v>581</v>
       </c>
       <c r="Q10" t="n">
-        <v>1632.0</v>
+        <v>1632</v>
       </c>
       <c r="R10" t="n">
-        <v>272.0</v>
+        <v>272</v>
       </c>
       <c r="S10" t="n">
-        <v>483.0</v>
+        <v>483</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>511.0</v>
+        <v>511</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>241.0</v>
+        <v>241</v>
       </c>
       <c r="AA10" t="n">
-        <v>812.0</v>
+        <v>812</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>-13.0</v>
+        <v>-13</v>
       </c>
       <c r="AD10" t="n">
-        <v>2498.0</v>
+        <v>2498</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="AJ10" t="n">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="AK10" t="n">
-        <v>1326.0</v>
+        <v>1326</v>
       </c>
       <c r="AL10" t="n">
-        <v>4585.0</v>
+        <v>4585</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="AO10" t="n">
-        <v>72940.0</v>
+        <v>72940</v>
       </c>
       <c r="AP10" t="n">
-        <v>20904.0</v>
+        <v>20904</v>
       </c>
       <c r="AQ10" t="n">
-        <v>58291.0</v>
+        <v>58291</v>
       </c>
       <c r="AR10" t="n">
-        <v>24499.0</v>
+        <v>24499</v>
       </c>
       <c r="AS10" t="n">
-        <v>499.0</v>
+        <v>499</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AU10" t="n">
-        <v>927.0</v>
+        <v>927</v>
       </c>
       <c r="AV10" t="n">
-        <v>1029.0</v>
+        <v>1029</v>
       </c>
       <c r="AW10" t="n">
-        <v>36757.0</v>
+        <v>36757</v>
       </c>
       <c r="AX10" t="n">
-        <v>264.0</v>
+        <v>264</v>
       </c>
       <c r="AY10" t="n">
-        <v>961.0</v>
+        <v>961</v>
       </c>
       <c r="AZ10" t="n">
-        <v>568.0</v>
+        <v>568</v>
       </c>
       <c r="BA10" t="n">
-        <v>6478.0</v>
+        <v>6478</v>
       </c>
       <c r="BB10" t="n">
-        <v>1937.0</v>
+        <v>1937</v>
       </c>
       <c r="BC10" t="n">
-        <v>4265.0</v>
+        <v>4265</v>
       </c>
       <c r="BD10" t="n">
-        <v>31117.0</v>
+        <v>31117</v>
       </c>
       <c r="BE10" t="n">
-        <v>8433.0</v>
+        <v>8433</v>
       </c>
       <c r="BF10" t="n">
-        <v>6514.0</v>
+        <v>6514</v>
       </c>
       <c r="BG10" t="n">
-        <v>610.0</v>
+        <v>610</v>
       </c>
       <c r="BH10" t="n">
-        <v>6076.0</v>
+        <v>6076</v>
       </c>
       <c r="BI10" t="n">
-        <v>1041.0</v>
+        <v>1041</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BL10" t="n">
-        <v>5723.0</v>
+        <v>5723</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BN10" t="n">
-        <v>35244.0</v>
+        <v>35244</v>
       </c>
       <c r="BO10" t="n">
-        <v>5893.0</v>
+        <v>5893</v>
       </c>
       <c r="BP10" t="n">
-        <v>24584.0</v>
+        <v>24584</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B11" t="n">
-        <v>89330.0</v>
+        <v>89330</v>
       </c>
       <c r="C11" t="n">
-        <v>12623.0</v>
+        <v>12623</v>
       </c>
       <c r="D11" t="n">
-        <v>11190.0</v>
+        <v>11190</v>
       </c>
       <c r="E11" t="n">
-        <v>3522.0</v>
+        <v>3522</v>
       </c>
       <c r="F11" t="n">
-        <v>-890.0</v>
+        <v>-890</v>
       </c>
       <c r="G11" t="n">
-        <v>16980.0</v>
+        <v>16980</v>
       </c>
       <c r="H11" t="n">
-        <v>1323.0</v>
+        <v>1323</v>
       </c>
       <c r="I11" t="n">
-        <v>11008.0</v>
+        <v>11008</v>
       </c>
       <c r="J11" t="n">
-        <v>1672.0</v>
+        <v>1672</v>
       </c>
       <c r="K11" t="n">
-        <v>12290.0</v>
+        <v>12290</v>
       </c>
       <c r="L11" t="n">
-        <v>11141.0</v>
+        <v>11141</v>
       </c>
       <c r="M11" t="n">
-        <v>2172.0</v>
+        <v>2172</v>
       </c>
       <c r="N11" t="n">
-        <v>1675.0</v>
+        <v>1675</v>
       </c>
       <c r="O11" t="n">
-        <v>1520.0</v>
+        <v>1520</v>
       </c>
       <c r="P11" t="n">
-        <v>2876.0</v>
+        <v>2876</v>
       </c>
       <c r="Q11" t="n">
-        <v>1662.0</v>
+        <v>1662</v>
       </c>
       <c r="R11" t="n">
-        <v>12531.0</v>
+        <v>12531</v>
       </c>
       <c r="S11" t="n">
-        <v>3070.0</v>
+        <v>3070</v>
       </c>
       <c r="T11" t="n">
-        <v>59871.0</v>
+        <v>59871</v>
       </c>
       <c r="U11" t="n">
-        <v>4308.0</v>
+        <v>4308</v>
       </c>
       <c r="V11" t="n">
-        <v>17625.0</v>
+        <v>17625</v>
       </c>
       <c r="W11" t="n">
-        <v>6268.0</v>
+        <v>6268</v>
       </c>
       <c r="X11" t="n">
-        <v>4144.0</v>
+        <v>4144</v>
       </c>
       <c r="Y11" t="n">
-        <v>13920.0</v>
+        <v>13920</v>
       </c>
       <c r="Z11" t="n">
-        <v>7099.0</v>
+        <v>7099</v>
       </c>
       <c r="AA11" t="n">
-        <v>4566.0</v>
+        <v>4566</v>
       </c>
       <c r="AB11" t="n">
-        <v>2558.0</v>
+        <v>2558</v>
       </c>
       <c r="AC11" t="n">
-        <v>6824.0</v>
+        <v>6824</v>
       </c>
       <c r="AD11" t="n">
-        <v>9222.0</v>
+        <v>9222</v>
       </c>
       <c r="AE11" t="n">
-        <v>5288.0</v>
+        <v>5288</v>
       </c>
       <c r="AF11" t="n">
-        <v>5951.0</v>
+        <v>5951</v>
       </c>
       <c r="AG11" t="n">
-        <v>5459.0</v>
+        <v>5459</v>
       </c>
       <c r="AH11" t="n">
-        <v>-7218.0</v>
+        <v>-7218</v>
       </c>
       <c r="AI11" t="n">
-        <v>1895.0</v>
+        <v>1895</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1876.0</v>
+        <v>1876</v>
       </c>
       <c r="AK11" t="n">
-        <v>14113.0</v>
+        <v>14113</v>
       </c>
       <c r="AL11" t="n">
-        <v>6815.0</v>
+        <v>6815</v>
       </c>
       <c r="AM11" t="n">
-        <v>79998.0</v>
+        <v>79998</v>
       </c>
       <c r="AN11" t="n">
-        <v>22483.0</v>
+        <v>22483</v>
       </c>
       <c r="AO11" t="n">
-        <v>86276.0</v>
+        <v>86276</v>
       </c>
       <c r="AP11" t="n">
-        <v>22648.0</v>
+        <v>22648</v>
       </c>
       <c r="AQ11" t="n">
-        <v>223922.0</v>
+        <v>223922</v>
       </c>
       <c r="AR11" t="n">
-        <v>41363.0</v>
+        <v>41363</v>
       </c>
       <c r="AS11" t="n">
-        <v>3530.0</v>
+        <v>3530</v>
       </c>
       <c r="AT11" t="n">
-        <v>2818.0</v>
+        <v>2818</v>
       </c>
       <c r="AU11" t="n">
-        <v>22986.0</v>
+        <v>22986</v>
       </c>
       <c r="AV11" t="n">
-        <v>1601.0</v>
+        <v>1601</v>
       </c>
       <c r="AW11" t="n">
-        <v>24678.0</v>
+        <v>24678</v>
       </c>
       <c r="AX11" t="n">
-        <v>1203.0</v>
+        <v>1203</v>
       </c>
       <c r="AY11" t="n">
-        <v>5348.0</v>
+        <v>5348</v>
       </c>
       <c r="AZ11" t="n">
-        <v>43365.0</v>
+        <v>43365</v>
       </c>
       <c r="BA11" t="n">
-        <v>27467.0</v>
+        <v>27467</v>
       </c>
       <c r="BB11" t="n">
-        <v>259637.0</v>
+        <v>259637</v>
       </c>
       <c r="BC11" t="n">
-        <v>515113.0</v>
+        <v>515113</v>
       </c>
       <c r="BD11" t="n">
-        <v>49328.0</v>
+        <v>49328</v>
       </c>
       <c r="BE11" t="n">
-        <v>10093.0</v>
+        <v>10093</v>
       </c>
       <c r="BF11" t="n">
-        <v>15114.0</v>
+        <v>15114</v>
       </c>
       <c r="BG11" t="n">
-        <v>15537.0</v>
+        <v>15537</v>
       </c>
       <c r="BH11" t="n">
-        <v>44742.0</v>
+        <v>44742</v>
       </c>
       <c r="BI11" t="n">
-        <v>1162.0</v>
+        <v>1162</v>
       </c>
       <c r="BJ11" t="n">
-        <v>79231.0</v>
+        <v>79231</v>
       </c>
       <c r="BK11" t="n">
-        <v>12566.0</v>
+        <v>12566</v>
       </c>
       <c r="BL11" t="n">
-        <v>933.0</v>
+        <v>933</v>
       </c>
       <c r="BM11" t="n">
-        <v>6161.0</v>
+        <v>6161</v>
       </c>
       <c r="BN11" t="n">
-        <v>32819.0</v>
+        <v>32819</v>
       </c>
       <c r="BO11" t="n">
-        <v>2250.0</v>
+        <v>2250</v>
       </c>
       <c r="BP11" t="n">
-        <v>7091.0</v>
+        <v>7091</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B12" t="n">
-        <v>1528.0</v>
+        <v>1528</v>
       </c>
       <c r="C12" t="n">
-        <v>653.0</v>
+        <v>653</v>
       </c>
       <c r="D12" t="n">
-        <v>136.0</v>
+        <v>136</v>
       </c>
       <c r="E12" t="n">
-        <v>184.0</v>
+        <v>184</v>
       </c>
       <c r="F12" t="n">
-        <v>1064.0</v>
+        <v>1064</v>
       </c>
       <c r="G12" t="n">
-        <v>364.0</v>
+        <v>364</v>
       </c>
       <c r="H12" t="n">
-        <v>146.0</v>
+        <v>146</v>
       </c>
       <c r="I12" t="n">
-        <v>2142.0</v>
+        <v>2142</v>
       </c>
       <c r="J12" t="n">
-        <v>766.0</v>
+        <v>766</v>
       </c>
       <c r="K12" t="n">
-        <v>2457.0</v>
+        <v>2457</v>
       </c>
       <c r="L12" t="n">
-        <v>705.0</v>
+        <v>705</v>
       </c>
       <c r="M12" t="n">
-        <v>111.0</v>
+        <v>111</v>
       </c>
       <c r="N12" t="n">
-        <v>450.0</v>
+        <v>450</v>
       </c>
       <c r="O12" t="n">
-        <v>616.0</v>
+        <v>616</v>
       </c>
       <c r="P12" t="n">
-        <v>444.0</v>
+        <v>444</v>
       </c>
       <c r="Q12" t="n">
-        <v>261.0</v>
+        <v>261</v>
       </c>
       <c r="R12" t="n">
-        <v>742.0</v>
+        <v>742</v>
       </c>
       <c r="S12" t="n">
-        <v>243.0</v>
+        <v>243</v>
       </c>
       <c r="T12" t="n">
-        <v>1052.0</v>
+        <v>1052</v>
       </c>
       <c r="U12" t="n">
-        <v>400.0</v>
+        <v>400</v>
       </c>
       <c r="V12" t="n">
-        <v>1093.0</v>
+        <v>1093</v>
       </c>
       <c r="W12" t="n">
-        <v>627.0</v>
+        <v>627</v>
       </c>
       <c r="X12" t="n">
-        <v>388.0</v>
+        <v>388</v>
       </c>
       <c r="Y12" t="n">
-        <v>573.0</v>
+        <v>573</v>
       </c>
       <c r="Z12" t="n">
-        <v>1021.0</v>
+        <v>1021</v>
       </c>
       <c r="AA12" t="n">
-        <v>873.0</v>
+        <v>873</v>
       </c>
       <c r="AB12" t="n">
-        <v>794.0</v>
+        <v>794</v>
       </c>
       <c r="AC12" t="n">
-        <v>423.0</v>
+        <v>423</v>
       </c>
       <c r="AD12" t="n">
-        <v>979.0</v>
+        <v>979</v>
       </c>
       <c r="AE12" t="n">
-        <v>717.0</v>
+        <v>717</v>
       </c>
       <c r="AF12" t="n">
-        <v>738.0</v>
+        <v>738</v>
       </c>
       <c r="AG12" t="n">
-        <v>1235.0</v>
+        <v>1235</v>
       </c>
       <c r="AH12" t="n">
-        <v>1186.0</v>
+        <v>1186</v>
       </c>
       <c r="AI12" t="n">
-        <v>846.0</v>
+        <v>846</v>
       </c>
       <c r="AJ12" t="n">
-        <v>476.0</v>
+        <v>476</v>
       </c>
       <c r="AK12" t="n">
-        <v>669.0</v>
+        <v>669</v>
       </c>
       <c r="AL12" t="n">
-        <v>413.0</v>
+        <v>413</v>
       </c>
       <c r="AM12" t="n">
-        <v>2118.0</v>
+        <v>2118</v>
       </c>
       <c r="AN12" t="n">
-        <v>749.0</v>
+        <v>749</v>
       </c>
       <c r="AO12" t="n">
-        <v>4097.0</v>
+        <v>4097</v>
       </c>
       <c r="AP12" t="n">
-        <v>1367.0</v>
+        <v>1367</v>
       </c>
       <c r="AQ12" t="n">
-        <v>10790.0</v>
+        <v>10790</v>
       </c>
       <c r="AR12" t="n">
-        <v>3123.0</v>
+        <v>3123</v>
       </c>
       <c r="AS12" t="n">
-        <v>385.0</v>
+        <v>385</v>
       </c>
       <c r="AT12" t="n">
-        <v>579.0</v>
+        <v>579</v>
       </c>
       <c r="AU12" t="n">
-        <v>1600.0</v>
+        <v>1600</v>
       </c>
       <c r="AV12" t="n">
-        <v>346.0</v>
+        <v>346</v>
       </c>
       <c r="AW12" t="n">
-        <v>1475.0</v>
+        <v>1475</v>
       </c>
       <c r="AX12" t="n">
-        <v>244.0</v>
+        <v>244</v>
       </c>
       <c r="AY12" t="n">
-        <v>1040.0</v>
+        <v>1040</v>
       </c>
       <c r="AZ12" t="n">
-        <v>4659.0</v>
+        <v>4659</v>
       </c>
       <c r="BA12" t="n">
-        <v>1688.0</v>
+        <v>1688</v>
       </c>
       <c r="BB12" t="n">
-        <v>7192.0</v>
+        <v>7192</v>
       </c>
       <c r="BC12" t="n">
-        <v>423.0</v>
+        <v>423</v>
       </c>
       <c r="BD12" t="n">
-        <v>2350.0</v>
+        <v>2350</v>
       </c>
       <c r="BE12" t="n">
-        <v>732.0</v>
+        <v>732</v>
       </c>
       <c r="BF12" t="n">
-        <v>437.0</v>
+        <v>437</v>
       </c>
       <c r="BG12" t="n">
-        <v>469.0</v>
+        <v>469</v>
       </c>
       <c r="BH12" t="n">
-        <v>2892.0</v>
+        <v>2892</v>
       </c>
       <c r="BI12" t="n">
-        <v>1668.0</v>
+        <v>1668</v>
       </c>
       <c r="BJ12" t="n">
-        <v>140.0</v>
+        <v>140</v>
       </c>
       <c r="BK12" t="n">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="BL12" t="n">
-        <v>2080.0</v>
+        <v>2080</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BN12" t="n">
-        <v>2426.0</v>
+        <v>2426</v>
       </c>
       <c r="BO12" t="n">
-        <v>267.0</v>
+        <v>267</v>
       </c>
       <c r="BP12" t="n">
-        <v>1093.0</v>
+        <v>1093</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B13" t="n">
-        <v>-12214.0</v>
+        <v>-12214</v>
       </c>
       <c r="C13" t="n">
-        <v>-191.0</v>
+        <v>-191</v>
       </c>
       <c r="D13" t="n">
-        <v>-47.0</v>
+        <v>-47</v>
       </c>
       <c r="E13" t="n">
-        <v>-103.0</v>
+        <v>-103</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-41.0</v>
+        <v>-41</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-138.0</v>
+        <v>-138</v>
       </c>
       <c r="J13" t="n">
-        <v>-192.0</v>
+        <v>-192</v>
       </c>
       <c r="K13" t="n">
-        <v>-178.0</v>
+        <v>-178</v>
       </c>
       <c r="L13" t="n">
-        <v>-53.0</v>
+        <v>-53</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-35.0</v>
+        <v>-35</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-52.0</v>
+        <v>-52</v>
       </c>
       <c r="R13" t="n">
-        <v>-134.0</v>
+        <v>-134</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-253.0</v>
+        <v>-253</v>
       </c>
       <c r="U13" t="n">
-        <v>-225.0</v>
+        <v>-225</v>
       </c>
       <c r="V13" t="n">
-        <v>-51.0</v>
+        <v>-51</v>
       </c>
       <c r="W13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-35.0</v>
+        <v>-35</v>
       </c>
       <c r="Z13" t="n">
-        <v>-202.0</v>
+        <v>-202</v>
       </c>
       <c r="AA13" t="n">
-        <v>-167.0</v>
+        <v>-167</v>
       </c>
       <c r="AB13" t="n">
-        <v>-91.0</v>
+        <v>-91</v>
       </c>
       <c r="AC13" t="n">
-        <v>-47.0</v>
+        <v>-47</v>
       </c>
       <c r="AD13" t="n">
-        <v>-111.0</v>
+        <v>-111</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>-125.0</v>
+        <v>-125</v>
       </c>
       <c r="AG13" t="n">
-        <v>-327.0</v>
+        <v>-327</v>
       </c>
       <c r="AH13" t="n">
-        <v>-370.0</v>
+        <v>-370</v>
       </c>
       <c r="AI13" t="n">
-        <v>-302.0</v>
+        <v>-302</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-84.0</v>
+        <v>-84</v>
       </c>
       <c r="AK13" t="n">
-        <v>-48.0</v>
+        <v>-48</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AM13" t="n">
-        <v>-916.0</v>
+        <v>-916</v>
       </c>
       <c r="AN13" t="n">
-        <v>-52.0</v>
+        <v>-52</v>
       </c>
       <c r="AO13" t="n">
-        <v>-613.0</v>
+        <v>-613</v>
       </c>
       <c r="AP13" t="n">
-        <v>-48.0</v>
+        <v>-48</v>
       </c>
       <c r="AQ13" t="n">
-        <v>-1561.0</v>
+        <v>-1561</v>
       </c>
       <c r="AR13" t="n">
-        <v>-2747.0</v>
+        <v>-2747</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>-42.0</v>
+        <v>-42</v>
       </c>
       <c r="AU13" t="n">
-        <v>-82.0</v>
+        <v>-82</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AZ13" t="n">
-        <v>-108.0</v>
+        <v>-108</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BE13" t="n">
-        <v>-729.0</v>
+        <v>-729</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BG13" t="n">
-        <v>-261.0</v>
+        <v>-261</v>
       </c>
       <c r="BH13" t="n">
-        <v>-82.0</v>
+        <v>-82</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BN13" t="n">
-        <v>-41.0</v>
+        <v>-41</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B14" t="n">
-        <v>354666.0</v>
+        <v>354666</v>
       </c>
       <c r="C14" t="n">
-        <v>150854.0</v>
+        <v>150854</v>
       </c>
       <c r="D14" t="n">
-        <v>33300.0</v>
+        <v>33300</v>
       </c>
       <c r="E14" t="n">
-        <v>18284.0</v>
+        <v>18284</v>
       </c>
       <c r="F14" t="n">
-        <v>125532.0</v>
+        <v>125532</v>
       </c>
       <c r="G14" t="n">
-        <v>48914.0</v>
+        <v>48914</v>
       </c>
       <c r="H14" t="n">
-        <v>15083.0</v>
+        <v>15083</v>
       </c>
       <c r="I14" t="n">
-        <v>272384.0</v>
+        <v>272384</v>
       </c>
       <c r="J14" t="n">
-        <v>61138.0</v>
+        <v>61138</v>
       </c>
       <c r="K14" t="n">
-        <v>281307.0</v>
+        <v>281307</v>
       </c>
       <c r="L14" t="n">
-        <v>74488.0</v>
+        <v>74488</v>
       </c>
       <c r="M14" t="n">
-        <v>14809.0</v>
+        <v>14809</v>
       </c>
       <c r="N14" t="n">
-        <v>46745.0</v>
+        <v>46745</v>
       </c>
       <c r="O14" t="n">
-        <v>62024.0</v>
+        <v>62024</v>
       </c>
       <c r="P14" t="n">
-        <v>41936.0</v>
+        <v>41936</v>
       </c>
       <c r="Q14" t="n">
-        <v>26152.0</v>
+        <v>26152</v>
       </c>
       <c r="R14" t="n">
-        <v>87031.0</v>
+        <v>87031</v>
       </c>
       <c r="S14" t="n">
-        <v>20676.0</v>
+        <v>20676</v>
       </c>
       <c r="T14" t="n">
-        <v>368245.0</v>
+        <v>368245</v>
       </c>
       <c r="U14" t="n">
-        <v>48833.0</v>
+        <v>48833</v>
       </c>
       <c r="V14" t="n">
-        <v>149575.0</v>
+        <v>149575</v>
       </c>
       <c r="W14" t="n">
-        <v>76815.0</v>
+        <v>76815</v>
       </c>
       <c r="X14" t="n">
-        <v>43781.0</v>
+        <v>43781</v>
       </c>
       <c r="Y14" t="n">
-        <v>61366.0</v>
+        <v>61366</v>
       </c>
       <c r="Z14" t="n">
-        <v>102658.0</v>
+        <v>102658</v>
       </c>
       <c r="AA14" t="n">
-        <v>81004.0</v>
+        <v>81004</v>
       </c>
       <c r="AB14" t="n">
-        <v>93500.0</v>
+        <v>93500</v>
       </c>
       <c r="AC14" t="n">
-        <v>54303.0</v>
+        <v>54303</v>
       </c>
       <c r="AD14" t="n">
-        <v>89229.0</v>
+        <v>89229</v>
       </c>
       <c r="AE14" t="n">
-        <v>77134.0</v>
+        <v>77134</v>
       </c>
       <c r="AF14" t="n">
-        <v>72649.0</v>
+        <v>72649</v>
       </c>
       <c r="AG14" t="n">
-        <v>108932.0</v>
+        <v>108932</v>
       </c>
       <c r="AH14" t="n">
-        <v>133478.0</v>
+        <v>133478</v>
       </c>
       <c r="AI14" t="n">
-        <v>73683.0</v>
+        <v>73683</v>
       </c>
       <c r="AJ14" t="n">
-        <v>45631.0</v>
+        <v>45631</v>
       </c>
       <c r="AK14" t="n">
-        <v>67590.0</v>
+        <v>67590</v>
       </c>
       <c r="AL14" t="n">
-        <v>64049.0</v>
+        <v>64049</v>
       </c>
       <c r="AM14" t="n">
-        <v>253973.0</v>
+        <v>253973</v>
       </c>
       <c r="AN14" t="n">
-        <v>71501.0</v>
+        <v>71501</v>
       </c>
       <c r="AO14" t="n">
-        <v>590496.0</v>
+        <v>590496</v>
       </c>
       <c r="AP14" t="n">
-        <v>152921.0</v>
+        <v>152921</v>
       </c>
       <c r="AQ14" t="n">
-        <v>982596.0</v>
+        <v>982596</v>
       </c>
       <c r="AR14" t="n">
-        <v>335326.0</v>
+        <v>335326</v>
       </c>
       <c r="AS14" t="n">
-        <v>20245.0</v>
+        <v>20245</v>
       </c>
       <c r="AT14" t="n">
-        <v>38908.0</v>
+        <v>38908</v>
       </c>
       <c r="AU14" t="n">
-        <v>119965.0</v>
+        <v>119965</v>
       </c>
       <c r="AV14" t="n">
-        <v>25233.0</v>
+        <v>25233</v>
       </c>
       <c r="AW14" t="n">
-        <v>235420.0</v>
+        <v>235420</v>
       </c>
       <c r="AX14" t="n">
-        <v>18970.0</v>
+        <v>18970</v>
       </c>
       <c r="AY14" t="n">
-        <v>43151.0</v>
+        <v>43151</v>
       </c>
       <c r="AZ14" t="n">
-        <v>160653.0</v>
+        <v>160653</v>
       </c>
       <c r="BA14" t="n">
-        <v>131790.0</v>
+        <v>131790</v>
       </c>
       <c r="BB14" t="n">
-        <v>641795.0</v>
+        <v>641795</v>
       </c>
       <c r="BC14" t="n">
-        <v>578082.0</v>
+        <v>578082</v>
       </c>
       <c r="BD14" t="n">
-        <v>206751.0</v>
+        <v>206751</v>
       </c>
       <c r="BE14" t="n">
-        <v>64652.0</v>
+        <v>64652</v>
       </c>
       <c r="BF14" t="n">
-        <v>99586.0</v>
+        <v>99586</v>
       </c>
       <c r="BG14" t="n">
-        <v>43370.0</v>
+        <v>43370</v>
       </c>
       <c r="BH14" t="n">
-        <v>227887.0</v>
+        <v>227887</v>
       </c>
       <c r="BI14" t="n">
-        <v>41171.0</v>
+        <v>41171</v>
       </c>
       <c r="BJ14" t="n">
-        <v>776526.0</v>
+        <v>776526</v>
       </c>
       <c r="BK14" t="n">
-        <v>326443.0</v>
+        <v>326443</v>
       </c>
       <c r="BL14" t="n">
-        <v>122070.0</v>
+        <v>122070</v>
       </c>
       <c r="BM14" t="n">
-        <v>190139.0</v>
+        <v>190139</v>
       </c>
       <c r="BN14" t="n">
-        <v>244879.0</v>
+        <v>244879</v>
       </c>
       <c r="BO14" t="n">
-        <v>36907.0</v>
+        <v>36907</v>
       </c>
       <c r="BP14" t="n">
-        <v>144605.0</v>
+        <v>144605</v>
       </c>
       <c r="BQ14" t="n">
-        <v>68278.0</v>
+        <v>68278</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B15" t="n">
-        <v>6132306.0</v>
+        <v>6132306</v>
       </c>
       <c r="C15" t="n">
-        <v>6109866.0</v>
+        <v>6109866</v>
       </c>
       <c r="D15" t="n">
-        <v>864515.0</v>
+        <v>864515</v>
       </c>
       <c r="E15" t="n">
-        <v>117548.0</v>
+        <v>117548</v>
       </c>
       <c r="F15" t="n">
-        <v>55684.0</v>
+        <v>55684</v>
       </c>
       <c r="G15" t="n">
-        <v>39259.0</v>
+        <v>39259</v>
       </c>
       <c r="H15" t="n">
-        <v>31040.0</v>
+        <v>31040</v>
       </c>
       <c r="I15" t="n">
-        <v>725942.0</v>
+        <v>725942</v>
       </c>
       <c r="J15" t="n">
-        <v>164574.0</v>
+        <v>164574</v>
       </c>
       <c r="K15" t="n">
-        <v>1201206.0</v>
+        <v>1201206</v>
       </c>
       <c r="L15" t="n">
-        <v>182404.0</v>
+        <v>182404</v>
       </c>
       <c r="M15" t="n">
-        <v>18372.0</v>
+        <v>18372</v>
       </c>
       <c r="N15" t="n">
-        <v>583638.0</v>
+        <v>583638</v>
       </c>
       <c r="O15" t="n">
-        <v>1606808.0</v>
+        <v>1606808</v>
       </c>
       <c r="P15" t="n">
-        <v>476981.0</v>
+        <v>476981</v>
       </c>
       <c r="Q15" t="n">
-        <v>362686.0</v>
+        <v>362686</v>
       </c>
       <c r="R15" t="n">
-        <v>199189.0</v>
+        <v>199189</v>
       </c>
       <c r="S15" t="n">
-        <v>182475.0</v>
+        <v>182475</v>
       </c>
       <c r="T15" t="n">
-        <v>23208.0</v>
+        <v>23208</v>
       </c>
       <c r="U15" t="n">
-        <v>110307.0</v>
+        <v>110307</v>
       </c>
       <c r="V15" t="n">
-        <v>97588.0</v>
+        <v>97588</v>
       </c>
       <c r="W15" t="n">
-        <v>93744.0</v>
+        <v>93744</v>
       </c>
       <c r="X15" t="n">
-        <v>131421.0</v>
+        <v>131421</v>
       </c>
       <c r="Y15" t="n">
-        <v>100973.0</v>
+        <v>100973</v>
       </c>
       <c r="Z15" t="n">
-        <v>429065.0</v>
+        <v>429065</v>
       </c>
       <c r="AA15" t="n">
-        <v>580092.0</v>
+        <v>580092</v>
       </c>
       <c r="AB15" t="n">
-        <v>117071.0</v>
+        <v>117071</v>
       </c>
       <c r="AC15" t="n">
-        <v>97814.0</v>
+        <v>97814</v>
       </c>
       <c r="AD15" t="n">
-        <v>678998.0</v>
+        <v>678998</v>
       </c>
       <c r="AE15" t="n">
-        <v>129596.0</v>
+        <v>129596</v>
       </c>
       <c r="AF15" t="n">
-        <v>207995.0</v>
+        <v>207995</v>
       </c>
       <c r="AG15" t="n">
-        <v>374626.0</v>
+        <v>374626</v>
       </c>
       <c r="AH15" t="n">
-        <v>152525.0</v>
+        <v>152525</v>
       </c>
       <c r="AI15" t="n">
-        <v>276949.0</v>
+        <v>276949</v>
       </c>
       <c r="AJ15" t="n">
-        <v>96382.0</v>
+        <v>96382</v>
       </c>
       <c r="AK15" t="n">
-        <v>715070.0</v>
+        <v>715070</v>
       </c>
       <c r="AL15" t="n">
-        <v>474101.0</v>
+        <v>474101</v>
       </c>
       <c r="AM15" t="n">
-        <v>157706.0</v>
+        <v>157706</v>
       </c>
       <c r="AN15" t="n">
-        <v>510893.0</v>
+        <v>510893</v>
       </c>
       <c r="AO15" t="n">
-        <v>8033881.0</v>
+        <v>8033881</v>
       </c>
       <c r="AP15" t="n">
-        <v>2838349.0</v>
+        <v>2838349</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.5685222E7</v>
+        <v>15685222</v>
       </c>
       <c r="AR15" t="n">
-        <v>3807471.0</v>
+        <v>3807471</v>
       </c>
       <c r="AS15" t="n">
-        <v>55347.0</v>
+        <v>55347</v>
       </c>
       <c r="AT15" t="n">
-        <v>63098.0</v>
+        <v>63098</v>
       </c>
       <c r="AU15" t="n">
-        <v>792431.0</v>
+        <v>792431</v>
       </c>
       <c r="AV15" t="n">
-        <v>428549.0</v>
+        <v>428549</v>
       </c>
       <c r="AW15" t="n">
-        <v>4957769.0</v>
+        <v>4957769</v>
       </c>
       <c r="AX15" t="n">
-        <v>149279.0</v>
+        <v>149279</v>
       </c>
       <c r="AY15" t="n">
-        <v>169552.0</v>
+        <v>169552</v>
       </c>
       <c r="AZ15" t="n">
-        <v>226782.0</v>
+        <v>226782</v>
       </c>
       <c r="BA15" t="n">
-        <v>763554.0</v>
+        <v>763554</v>
       </c>
       <c r="BB15" t="n">
-        <v>1209240.0</v>
+        <v>1209240</v>
       </c>
       <c r="BC15" t="n">
-        <v>435766.0</v>
+        <v>435766</v>
       </c>
       <c r="BD15" t="n">
-        <v>1744016.0</v>
+        <v>1744016</v>
       </c>
       <c r="BE15" t="n">
-        <v>572474.0</v>
+        <v>572474</v>
       </c>
       <c r="BF15" t="n">
-        <v>515017.0</v>
+        <v>515017</v>
       </c>
       <c r="BG15" t="n">
-        <v>314617.0</v>
+        <v>314617</v>
       </c>
       <c r="BH15" t="n">
-        <v>4029258.0</v>
+        <v>4029258</v>
       </c>
       <c r="BI15" t="n">
-        <v>815707.0</v>
+        <v>815707</v>
       </c>
       <c r="BJ15" t="n">
-        <v>4982696.0</v>
+        <v>4982696</v>
       </c>
       <c r="BK15" t="n">
-        <v>4089618.0</v>
+        <v>4089618</v>
       </c>
       <c r="BL15" t="n">
-        <v>2508248.0</v>
+        <v>2508248</v>
       </c>
       <c r="BM15" t="n">
-        <v>2050964.0</v>
+        <v>2050964</v>
       </c>
       <c r="BN15" t="n">
-        <v>3044236.0</v>
+        <v>3044236</v>
       </c>
       <c r="BO15" t="n">
-        <v>993679.0</v>
+        <v>993679</v>
       </c>
       <c r="BP15" t="n">
-        <v>4006112.0</v>
+        <v>4006112</v>
       </c>
       <c r="BQ15" t="n">
-        <v>6468845.0</v>
+        <v>6468845</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Topicos Fundamentais/Top5/TRU/TRU_VA_corrente_2016.xlsx
+++ b/Topicos Fundamentais/Top5/TRU/TRU_VA_corrente_2016.xlsx
@@ -658,7 +658,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/Topicos Fundamentais/Top5/TRU/TRU_VA_corrente_2016.xlsx
+++ b/Topicos Fundamentais/Top5/TRU/TRU_VA_corrente_2016.xlsx
@@ -3,343 +3,340 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">0191
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+  <si>
+    <t>0191
 Agricultura, inclusive o apoio à agricultura e a pós-colheita</t>
   </si>
   <si>
-    <t xml:space="preserve">0192
+    <t>0192
 Pecuária, inclusive o apoio à pecuária</t>
   </si>
   <si>
-    <t xml:space="preserve">0280
+    <t>0280
 Produção florestal; pesca e aquicultura</t>
   </si>
   <si>
-    <t xml:space="preserve">0580
+    <t>0580
 Extração de carvão mineral e de minerais não-metálicos</t>
   </si>
   <si>
-    <t xml:space="preserve">0680
+    <t>0680
 Extração de petróleo e gás, inclusive as atividades de apoio</t>
   </si>
   <si>
-    <t xml:space="preserve">0791
+    <t>0791
 Extração de minério de ferro, inclusive beneficiamentos e a aglomeração</t>
   </si>
   <si>
-    <t xml:space="preserve">0792
+    <t>0792
 Extração de minerais metálicos não-ferrosos, inclusive beneficiamentos</t>
   </si>
   <si>
-    <t xml:space="preserve">1091
+    <t>1091
 Abate e produtos de carne, inclusive os produtos do laticínio e da pesca</t>
   </si>
   <si>
-    <t xml:space="preserve">1092
+    <t>1092
 Fabricação e refino de açúcar</t>
   </si>
   <si>
-    <t xml:space="preserve">1093
+    <t>1093
 Outros produtos alimentares</t>
   </si>
   <si>
-    <t xml:space="preserve">1100
+    <t>1100
 Fabricação de bebidas</t>
   </si>
   <si>
-    <t xml:space="preserve">1200
+    <t>1200
 Fabricação de produtos do fumo</t>
   </si>
   <si>
-    <t xml:space="preserve">1300
+    <t>1300
 Fabricação de produtos têxteis</t>
   </si>
   <si>
-    <t xml:space="preserve">1400
+    <t>1400
 Confecção de artefatos do vestuário e acessórios</t>
   </si>
   <si>
-    <t xml:space="preserve">1500
+    <t>1500
 Fabricação de calçados e de artefatos de couro</t>
   </si>
   <si>
-    <t xml:space="preserve">1600
+    <t>1600
 Fabricação de produtos da madeira</t>
   </si>
   <si>
-    <t xml:space="preserve">1700
+    <t>1700
 Fabricação de celulose, papel e produtos de papel</t>
   </si>
   <si>
-    <t xml:space="preserve">1800
+    <t>1800
 Impressão e reprodução de gravações</t>
   </si>
   <si>
-    <t xml:space="preserve">1991
+    <t>1991
 Refino de petróleo e coquerias</t>
   </si>
   <si>
-    <t xml:space="preserve">1992
+    <t>1992
 Fabricação de biocombustíveis</t>
   </si>
   <si>
-    <t xml:space="preserve">2091
+    <t>2091
 Fabricação de químicos orgânicos e inorgânicos, resinas e elastômeros</t>
   </si>
   <si>
-    <t xml:space="preserve">2092
+    <t>2092
 Fabricação de defensivos, desinfestantes, tintas e químicos diversos</t>
   </si>
   <si>
-    <t xml:space="preserve">2093
+    <t>2093
 Fabricação de produtos de limpeza, cosméticos/perfumaria e higiene pessoal</t>
   </si>
   <si>
-    <t xml:space="preserve">2100
+    <t>2100
 Fabricação de produtos farmoquímicos e farmacêuticos</t>
   </si>
   <si>
-    <t xml:space="preserve">2200
+    <t>2200
 Fabricação de produtos de borracha e de material plástico</t>
   </si>
   <si>
-    <t xml:space="preserve">2300
+    <t>2300
 Fabricação de produtos de minerais não-metálicos</t>
   </si>
   <si>
-    <t xml:space="preserve">2491
+    <t>2491
 Produção de ferro-gusa/ferroligas, siderurgia e tubos de aço sem costura</t>
   </si>
   <si>
-    <t xml:space="preserve">2492
+    <t>2492
 Metalurgia de metais não-ferrosos e a fundição de metais</t>
   </si>
   <si>
-    <t xml:space="preserve">2500
+    <t>2500
 Fabricação de produtos de metal, exceto máquinas e equipamentos</t>
   </si>
   <si>
-    <t xml:space="preserve">2600
+    <t>2600
 Fabricação de equipamentos de informática, produtos eletrônicos e ópticos</t>
   </si>
   <si>
-    <t xml:space="preserve">2700
+    <t>2700
 Fabricação de máquinas e equipamentos elétricos</t>
   </si>
   <si>
-    <t xml:space="preserve">2800
+    <t>2800
 Fabricação de máquinas e equipamentos mecânicos</t>
   </si>
   <si>
-    <t xml:space="preserve">2991
+    <t>2991
 Fabricação de automóveis, caminhões e ônibus, exceto peças</t>
   </si>
   <si>
-    <t xml:space="preserve">2992
+    <t>2992
 Fabricação de peças e acessórios para veículos automotores</t>
   </si>
   <si>
-    <t xml:space="preserve">3000
+    <t>3000
 Fabricação de outros equipamentos de transporte, exceto veículos automotores</t>
   </si>
   <si>
-    <t xml:space="preserve">3180
+    <t>3180
 Fabricação de móveis e de produtos de indústrias diversas</t>
   </si>
   <si>
-    <t xml:space="preserve">3300
+    <t>3300
 Manutenção, reparação e instalação de máquinas e equipamentos</t>
   </si>
   <si>
-    <t xml:space="preserve">3500
+    <t>3500
 Energia elétrica, gás natural e outras utilidades</t>
   </si>
   <si>
-    <t xml:space="preserve">3680
+    <t>3680
 Água, esgoto e gestão de resíduos</t>
   </si>
   <si>
-    <t xml:space="preserve">4180
+    <t>4180
 Construção</t>
   </si>
   <si>
-    <t xml:space="preserve">4500
+    <t>4500
 Comércio e reparação de veículos automotores e motocicletas</t>
   </si>
   <si>
-    <t xml:space="preserve">4680
+    <t>4680
 Comércio por atacado e a varejo, exceto veículos automotores</t>
   </si>
   <si>
-    <t xml:space="preserve">4900
+    <t>4900
 Transporte terrestre</t>
   </si>
   <si>
-    <t xml:space="preserve">5000
+    <t>5000
 Transporte aquaviário</t>
   </si>
   <si>
-    <t xml:space="preserve">5100
+    <t>5100
 Transporte aéreo</t>
   </si>
   <si>
-    <t xml:space="preserve">5280
+    <t>5280
 Armazenamento, atividades auxiliares dos transportes e correio</t>
   </si>
   <si>
-    <t xml:space="preserve">5500
+    <t>5500
 Alojamento</t>
   </si>
   <si>
-    <t xml:space="preserve">5600
+    <t>5600
 Alimentação</t>
   </si>
   <si>
-    <t xml:space="preserve">5800
+    <t>5800
 Edição e edição integrada à impressão</t>
   </si>
   <si>
-    <t xml:space="preserve">5980
+    <t>5980
 Atividades de televisão, rádio, cinema e  gravação/edição de som e imagem</t>
   </si>
   <si>
-    <t xml:space="preserve">6100
+    <t>6100
 Telecomunicações</t>
   </si>
   <si>
-    <t xml:space="preserve">6280
+    <t>6280
 Desenvolvimento de sistemas e outros serviços de informação</t>
   </si>
   <si>
-    <t xml:space="preserve">6480
+    <t>6480
 Intermediação financeira, seguros e previdência complementar</t>
   </si>
   <si>
-    <t xml:space="preserve">6800
+    <t>6800
 Atividades imobiliárias</t>
   </si>
   <si>
-    <t xml:space="preserve">6980
+    <t>6980
 Atividades jurídicas, contábeis, consultoria e sedes de empresas</t>
   </si>
   <si>
-    <t xml:space="preserve">7180
+    <t>7180
 Serviços de arquitetura, engenharia, testes/análises técnicas e P &amp; D</t>
   </si>
   <si>
-    <t xml:space="preserve">7380
+    <t>7380
 Outras atividades profissionais, científicas e técnicas</t>
   </si>
   <si>
-    <t xml:space="preserve">7700
+    <t>7700
 Aluguéis não-imobiliários e gestão de ativos de propriedade intelectual</t>
   </si>
   <si>
-    <t xml:space="preserve">7880
+    <t>7880
 Outras atividades administrativas e serviços complementares</t>
   </si>
   <si>
-    <t xml:space="preserve">8000
+    <t>8000
 Atividades de vigilância, segurança e investigação</t>
   </si>
   <si>
-    <t xml:space="preserve">8400
+    <t>8400
 Administração pública, defesa e seguridade social</t>
   </si>
   <si>
-    <t xml:space="preserve">8591
+    <t>8591
 Educação pública</t>
   </si>
   <si>
-    <t xml:space="preserve">8592
+    <t>8592
 Educação privada</t>
   </si>
   <si>
-    <t xml:space="preserve">8691
+    <t>8691
 Saúde pública</t>
   </si>
   <si>
-    <t xml:space="preserve">8692
+    <t>8692
 Saúde privada</t>
   </si>
   <si>
-    <t xml:space="preserve">9080
+    <t>9080
 Atividades artísticas, criativas e de espetáculos</t>
   </si>
   <si>
-    <t xml:space="preserve">9480
+    <t>9480
 Organizações associativas e outros serviços pessoais</t>
   </si>
   <si>
-    <t xml:space="preserve">9700
+    <t>9700
 Serviços domésticos</t>
   </si>
   <si>
-    <t xml:space="preserve">Valor adicionado bruto ( PIB )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remunerações</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salários</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contribuições sociais efetivas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Previdência oficial /FGTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Previdência privada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contribuições sociais imputadas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excedente operacional bruto e rendimento misto bruto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rendimento misto bruto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excedente operacional bruto (EOB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outros impostos sobre a produção</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outros subsídios à produção</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valor da produção</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fator trabalho (ocupações)</t>
+    <t>Valor adicionado bruto ( PIB )</t>
+  </si>
+  <si>
+    <t>Remunerações</t>
+  </si>
+  <si>
+    <t>Salários</t>
+  </si>
+  <si>
+    <t>Contribuições sociais efetivas</t>
+  </si>
+  <si>
+    <t>Previdência oficial /FGTS</t>
+  </si>
+  <si>
+    <t>Previdência privada</t>
+  </si>
+  <si>
+    <t>Contribuições sociais imputadas</t>
+  </si>
+  <si>
+    <t>Excedente operacional bruto e rendimento misto bruto</t>
+  </si>
+  <si>
+    <t>Rendimento misto bruto</t>
+  </si>
+  <si>
+    <t>Excedente operacional bruto (EOB)</t>
+  </si>
+  <si>
+    <t>Outros impostos sobre a produção</t>
+  </si>
+  <si>
+    <t>Outros subsídios à produção</t>
+  </si>
+  <si>
+    <t>Valor da produção</t>
+  </si>
+  <si>
+    <t>Fator trabalho (ocupações)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -350,7 +347,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="darkGray"/>
     </fill>
   </fills>
   <borders count="1">
@@ -368,3435 +365,3151 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1"/>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BF1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BG1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BH1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BI1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BJ1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BK1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BL1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BM1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BN1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BO1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BP1" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BQ1" t="s">
         <v>67</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" t="n">
-        <v>203650</v>
+        <v>203650.0</v>
       </c>
       <c r="C2" t="n">
-        <v>77748</v>
+        <v>77748.0</v>
       </c>
       <c r="D2" t="n">
-        <v>25257</v>
+        <v>25257.0</v>
       </c>
       <c r="E2" t="n">
-        <v>7687</v>
+        <v>7687.0</v>
       </c>
       <c r="F2" t="n">
-        <v>22035</v>
+        <v>22035.0</v>
       </c>
       <c r="G2" t="n">
-        <v>21721</v>
+        <v>21721.0</v>
       </c>
       <c r="H2" t="n">
-        <v>4132</v>
+        <v>4132.0</v>
       </c>
       <c r="I2" t="n">
-        <v>40462</v>
+        <v>40462.0</v>
       </c>
       <c r="J2" t="n">
-        <v>11432</v>
+        <v>11432.0</v>
       </c>
       <c r="K2" t="n">
-        <v>50036</v>
+        <v>50036.0</v>
       </c>
       <c r="L2" t="n">
-        <v>20387</v>
+        <v>20387.0</v>
       </c>
       <c r="M2" t="n">
-        <v>3855</v>
+        <v>3855.0</v>
       </c>
       <c r="N2" t="n">
-        <v>13365</v>
+        <v>13365.0</v>
       </c>
       <c r="O2" t="n">
-        <v>26067</v>
+        <v>26067.0</v>
       </c>
       <c r="P2" t="n">
-        <v>14187</v>
+        <v>14187.0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9613</v>
+        <v>9613.0</v>
       </c>
       <c r="R2" t="n">
-        <v>25667</v>
+        <v>25667.0</v>
       </c>
       <c r="S2" t="n">
-        <v>9279</v>
+        <v>9279.0</v>
       </c>
       <c r="T2" t="n">
-        <v>69800</v>
+        <v>69800.0</v>
       </c>
       <c r="U2" t="n">
-        <v>11207</v>
+        <v>11207.0</v>
       </c>
       <c r="V2" t="n">
-        <v>30842</v>
+        <v>30842.0</v>
       </c>
       <c r="W2" t="n">
-        <v>16061</v>
+        <v>16061.0</v>
       </c>
       <c r="X2" t="n">
-        <v>10437</v>
+        <v>10437.0</v>
       </c>
       <c r="Y2" t="n">
-        <v>26319</v>
+        <v>26319.0</v>
       </c>
       <c r="Z2" t="n">
-        <v>28452</v>
+        <v>28452.0</v>
       </c>
       <c r="AA2" t="n">
-        <v>25265</v>
+        <v>25265.0</v>
       </c>
       <c r="AB2" t="n">
-        <v>15606</v>
+        <v>15606.0</v>
       </c>
       <c r="AC2" t="n">
-        <v>12990</v>
+        <v>12990.0</v>
       </c>
       <c r="AD2" t="n">
-        <v>35240</v>
+        <v>35240.0</v>
       </c>
       <c r="AE2" t="n">
-        <v>15539</v>
+        <v>15539.0</v>
       </c>
       <c r="AF2" t="n">
-        <v>20758</v>
+        <v>20758.0</v>
       </c>
       <c r="AG2" t="n">
-        <v>33529</v>
+        <v>33529.0</v>
       </c>
       <c r="AH2" t="n">
-        <v>13674</v>
+        <v>13674.0</v>
       </c>
       <c r="AI2" t="n">
-        <v>20183</v>
+        <v>20183.0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>11700</v>
+        <v>11700.0</v>
       </c>
       <c r="AK2" t="n">
-        <v>31390</v>
+        <v>31390.0</v>
       </c>
       <c r="AL2" t="n">
-        <v>22896</v>
+        <v>22896.0</v>
       </c>
       <c r="AM2" t="n">
-        <v>100009</v>
+        <v>100009.0</v>
       </c>
       <c r="AN2" t="n">
-        <v>43711</v>
+        <v>43711.0</v>
       </c>
       <c r="AO2" t="n">
-        <v>275187</v>
+        <v>275187.0</v>
       </c>
       <c r="AP2" t="n">
-        <v>88202</v>
+        <v>88202.0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>611565</v>
+        <v>611565.0</v>
       </c>
       <c r="AR2" t="n">
-        <v>147818</v>
+        <v>147818.0</v>
       </c>
       <c r="AS2" t="n">
-        <v>9502</v>
+        <v>9502.0</v>
       </c>
       <c r="AT2" t="n">
-        <v>9927</v>
+        <v>9927.0</v>
       </c>
       <c r="AU2" t="n">
-        <v>68732</v>
+        <v>68732.0</v>
       </c>
       <c r="AV2" t="n">
-        <v>13324</v>
+        <v>13324.0</v>
       </c>
       <c r="AW2" t="n">
-        <v>114505</v>
+        <v>114505.0</v>
       </c>
       <c r="AX2" t="n">
-        <v>8143</v>
+        <v>8143.0</v>
       </c>
       <c r="AY2" t="n">
-        <v>17803</v>
+        <v>17803.0</v>
       </c>
       <c r="AZ2" t="n">
-        <v>66412</v>
+        <v>66412.0</v>
       </c>
       <c r="BA2" t="n">
-        <v>86672</v>
+        <v>86672.0</v>
       </c>
       <c r="BB2" t="n">
-        <v>425532</v>
+        <v>425532.0</v>
       </c>
       <c r="BC2" t="n">
-        <v>527006</v>
+        <v>527006.0</v>
       </c>
       <c r="BD2" t="n">
-        <v>141257</v>
+        <v>141257.0</v>
       </c>
       <c r="BE2" t="n">
-        <v>39482</v>
+        <v>39482.0</v>
       </c>
       <c r="BF2" t="n">
-        <v>35175</v>
+        <v>35175.0</v>
       </c>
       <c r="BG2" t="n">
-        <v>27167</v>
+        <v>27167.0</v>
       </c>
       <c r="BH2" t="n">
-        <v>158212</v>
+        <v>158212.0</v>
       </c>
       <c r="BI2" t="n">
-        <v>33900</v>
+        <v>33900.0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>544758</v>
+        <v>544758.0</v>
       </c>
       <c r="BK2" t="n">
-        <v>272681</v>
+        <v>272681.0</v>
       </c>
       <c r="BL2" t="n">
-        <v>84203</v>
+        <v>84203.0</v>
       </c>
       <c r="BM2" t="n">
-        <v>127682</v>
+        <v>127682.0</v>
       </c>
       <c r="BN2" t="n">
-        <v>141574</v>
+        <v>141574.0</v>
       </c>
       <c r="BO2" t="n">
-        <v>20405</v>
+        <v>20405.0</v>
       </c>
       <c r="BP2" t="n">
-        <v>72530</v>
+        <v>72530.0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>68278</v>
+        <v>68278.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" t="n">
-        <v>30436</v>
+        <v>30436.0</v>
       </c>
       <c r="C3" t="n">
-        <v>22884</v>
+        <v>22884.0</v>
       </c>
       <c r="D3" t="n">
-        <v>2550</v>
+        <v>2550.0</v>
       </c>
       <c r="E3" t="n">
-        <v>3844</v>
+        <v>3844.0</v>
       </c>
       <c r="F3" t="n">
-        <v>21861</v>
+        <v>21861.0</v>
       </c>
       <c r="G3" t="n">
-        <v>4418</v>
+        <v>4418.0</v>
       </c>
       <c r="H3" t="n">
-        <v>2663</v>
+        <v>2663.0</v>
       </c>
       <c r="I3" t="n">
-        <v>27095</v>
+        <v>27095.0</v>
       </c>
       <c r="J3" t="n">
-        <v>9186</v>
+        <v>9186.0</v>
       </c>
       <c r="K3" t="n">
-        <v>32413</v>
+        <v>32413.0</v>
       </c>
       <c r="L3" t="n">
-        <v>8573</v>
+        <v>8573.0</v>
       </c>
       <c r="M3" t="n">
-        <v>1572</v>
+        <v>1572.0</v>
       </c>
       <c r="N3" t="n">
-        <v>9901</v>
+        <v>9901.0</v>
       </c>
       <c r="O3" t="n">
-        <v>17993</v>
+        <v>17993.0</v>
       </c>
       <c r="P3" t="n">
-        <v>10286</v>
+        <v>10286.0</v>
       </c>
       <c r="Q3" t="n">
-        <v>6110</v>
+        <v>6110.0</v>
       </c>
       <c r="R3" t="n">
-        <v>12256</v>
+        <v>12256.0</v>
       </c>
       <c r="S3" t="n">
-        <v>5483</v>
+        <v>5483.0</v>
       </c>
       <c r="T3" t="n">
-        <v>9130</v>
+        <v>9130.0</v>
       </c>
       <c r="U3" t="n">
-        <v>6724</v>
+        <v>6724.0</v>
       </c>
       <c r="V3" t="n">
-        <v>12175</v>
+        <v>12175.0</v>
       </c>
       <c r="W3" t="n">
-        <v>9166</v>
+        <v>9166.0</v>
       </c>
       <c r="X3" t="n">
-        <v>5394</v>
+        <v>5394.0</v>
       </c>
       <c r="Y3" t="n">
-        <v>11861</v>
+        <v>11861.0</v>
       </c>
       <c r="Z3" t="n">
-        <v>20293</v>
+        <v>20293.0</v>
       </c>
       <c r="AA3" t="n">
-        <v>19181</v>
+        <v>19181.0</v>
       </c>
       <c r="AB3" t="n">
-        <v>12345</v>
+        <v>12345.0</v>
       </c>
       <c r="AC3" t="n">
-        <v>5803</v>
+        <v>5803.0</v>
       </c>
       <c r="AD3" t="n">
-        <v>22652</v>
+        <v>22652.0</v>
       </c>
       <c r="AE3" t="n">
-        <v>9534</v>
+        <v>9534.0</v>
       </c>
       <c r="AF3" t="n">
-        <v>14194</v>
+        <v>14194.0</v>
       </c>
       <c r="AG3" t="n">
-        <v>27162</v>
+        <v>27162.0</v>
       </c>
       <c r="AH3" t="n">
-        <v>20076</v>
+        <v>20076.0</v>
       </c>
       <c r="AI3" t="n">
-        <v>17710</v>
+        <v>17710.0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>9427</v>
+        <v>9427.0</v>
       </c>
       <c r="AK3" t="n">
-        <v>15330</v>
+        <v>15330.0</v>
       </c>
       <c r="AL3" t="n">
-        <v>11083</v>
+        <v>11083.0</v>
       </c>
       <c r="AM3" t="n">
-        <v>18809</v>
+        <v>18809.0</v>
       </c>
       <c r="AN3" t="n">
-        <v>19031</v>
+        <v>19031.0</v>
       </c>
       <c r="AO3" t="n">
-        <v>112487</v>
+        <v>112487.0</v>
       </c>
       <c r="AP3" t="n">
-        <v>43331</v>
+        <v>43331.0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>320123</v>
+        <v>320123.0</v>
       </c>
       <c r="AR3" t="n">
-        <v>81580</v>
+        <v>81580.0</v>
       </c>
       <c r="AS3" t="n">
-        <v>5088</v>
+        <v>5088.0</v>
       </c>
       <c r="AT3" t="n">
-        <v>6572</v>
+        <v>6572.0</v>
       </c>
       <c r="AU3" t="n">
-        <v>43301</v>
+        <v>43301.0</v>
       </c>
       <c r="AV3" t="n">
-        <v>10348</v>
+        <v>10348.0</v>
       </c>
       <c r="AW3" t="n">
-        <v>51595</v>
+        <v>51595.0</v>
       </c>
       <c r="AX3" t="n">
-        <v>6432</v>
+        <v>6432.0</v>
       </c>
       <c r="AY3" t="n">
-        <v>10454</v>
+        <v>10454.0</v>
       </c>
       <c r="AZ3" t="n">
-        <v>17928</v>
+        <v>17928.0</v>
       </c>
       <c r="BA3" t="n">
-        <v>51039</v>
+        <v>51039.0</v>
       </c>
       <c r="BB3" t="n">
-        <v>156766</v>
+        <v>156766.0</v>
       </c>
       <c r="BC3" t="n">
-        <v>7205</v>
+        <v>7205.0</v>
       </c>
       <c r="BD3" t="n">
-        <v>58462</v>
+        <v>58462.0</v>
       </c>
       <c r="BE3" t="n">
-        <v>20953</v>
+        <v>20953.0</v>
       </c>
       <c r="BF3" t="n">
-        <v>13110</v>
+        <v>13110.0</v>
       </c>
       <c r="BG3" t="n">
-        <v>10812</v>
+        <v>10812.0</v>
       </c>
       <c r="BH3" t="n">
-        <v>104584</v>
+        <v>104584.0</v>
       </c>
       <c r="BI3" t="n">
-        <v>30029</v>
+        <v>30029.0</v>
       </c>
       <c r="BJ3" t="n">
-        <v>465387</v>
+        <v>465387.0</v>
       </c>
       <c r="BK3" t="n">
-        <v>260097</v>
+        <v>260097.0</v>
       </c>
       <c r="BL3" t="n">
-        <v>75467</v>
+        <v>75467.0</v>
       </c>
       <c r="BM3" t="n">
-        <v>121521</v>
+        <v>121521.0</v>
       </c>
       <c r="BN3" t="n">
-        <v>71126</v>
+        <v>71126.0</v>
       </c>
       <c r="BO3" t="n">
-        <v>11995</v>
+        <v>11995.0</v>
       </c>
       <c r="BP3" t="n">
-        <v>39762</v>
+        <v>39762.0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>68278</v>
+        <v>68278.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" t="n">
-        <v>25835</v>
+        <v>25835.0</v>
       </c>
       <c r="C4" t="n">
-        <v>19912</v>
+        <v>19912.0</v>
       </c>
       <c r="D4" t="n">
-        <v>2095</v>
+        <v>2095.0</v>
       </c>
       <c r="E4" t="n">
-        <v>3075</v>
+        <v>3075.0</v>
       </c>
       <c r="F4" t="n">
-        <v>15933</v>
+        <v>15933.0</v>
       </c>
       <c r="G4" t="n">
-        <v>3527</v>
+        <v>3527.0</v>
       </c>
       <c r="H4" t="n">
-        <v>2042</v>
+        <v>2042.0</v>
       </c>
       <c r="I4" t="n">
-        <v>21164</v>
+        <v>21164.0</v>
       </c>
       <c r="J4" t="n">
-        <v>6773</v>
+        <v>6773.0</v>
       </c>
       <c r="K4" t="n">
-        <v>25574</v>
+        <v>25574.0</v>
       </c>
       <c r="L4" t="n">
-        <v>6672</v>
+        <v>6672.0</v>
       </c>
       <c r="M4" t="n">
-        <v>1207</v>
+        <v>1207.0</v>
       </c>
       <c r="N4" t="n">
-        <v>8096</v>
+        <v>8096.0</v>
       </c>
       <c r="O4" t="n">
-        <v>14158</v>
+        <v>14158.0</v>
       </c>
       <c r="P4" t="n">
-        <v>8481</v>
+        <v>8481.0</v>
       </c>
       <c r="Q4" t="n">
-        <v>5041</v>
+        <v>5041.0</v>
       </c>
       <c r="R4" t="n">
-        <v>9702</v>
+        <v>9702.0</v>
       </c>
       <c r="S4" t="n">
-        <v>4452</v>
+        <v>4452.0</v>
       </c>
       <c r="T4" t="n">
-        <v>6283</v>
+        <v>6283.0</v>
       </c>
       <c r="U4" t="n">
-        <v>5175</v>
+        <v>5175.0</v>
       </c>
       <c r="V4" t="n">
-        <v>9284</v>
+        <v>9284.0</v>
       </c>
       <c r="W4" t="n">
-        <v>7078</v>
+        <v>7078.0</v>
       </c>
       <c r="X4" t="n">
-        <v>4266</v>
+        <v>4266.0</v>
       </c>
       <c r="Y4" t="n">
-        <v>9106</v>
+        <v>9106.0</v>
       </c>
       <c r="Z4" t="n">
-        <v>15856</v>
+        <v>15856.0</v>
       </c>
       <c r="AA4" t="n">
-        <v>15547</v>
+        <v>15547.0</v>
       </c>
       <c r="AB4" t="n">
-        <v>9629</v>
+        <v>9629.0</v>
       </c>
       <c r="AC4" t="n">
-        <v>4669</v>
+        <v>4669.0</v>
       </c>
       <c r="AD4" t="n">
-        <v>17901</v>
+        <v>17901.0</v>
       </c>
       <c r="AE4" t="n">
-        <v>7554</v>
+        <v>7554.0</v>
       </c>
       <c r="AF4" t="n">
-        <v>11170</v>
+        <v>11170.0</v>
       </c>
       <c r="AG4" t="n">
-        <v>21594</v>
+        <v>21594.0</v>
       </c>
       <c r="AH4" t="n">
-        <v>15539</v>
+        <v>15539.0</v>
       </c>
       <c r="AI4" t="n">
-        <v>14907</v>
+        <v>14907.0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>7654</v>
+        <v>7654.0</v>
       </c>
       <c r="AK4" t="n">
-        <v>12574</v>
+        <v>12574.0</v>
       </c>
       <c r="AL4" t="n">
-        <v>9024</v>
+        <v>9024.0</v>
       </c>
       <c r="AM4" t="n">
-        <v>13326</v>
+        <v>13326.0</v>
       </c>
       <c r="AN4" t="n">
-        <v>14313</v>
+        <v>14313.0</v>
       </c>
       <c r="AO4" t="n">
-        <v>91647</v>
+        <v>91647.0</v>
       </c>
       <c r="AP4" t="n">
-        <v>35296</v>
+        <v>35296.0</v>
       </c>
       <c r="AQ4" t="n">
-        <v>254819</v>
+        <v>254819.0</v>
       </c>
       <c r="AR4" t="n">
-        <v>66374</v>
+        <v>66374.0</v>
       </c>
       <c r="AS4" t="n">
-        <v>4169</v>
+        <v>4169.0</v>
       </c>
       <c r="AT4" t="n">
-        <v>5460</v>
+        <v>5460.0</v>
       </c>
       <c r="AU4" t="n">
-        <v>33565</v>
+        <v>33565.0</v>
       </c>
       <c r="AV4" t="n">
-        <v>8690</v>
+        <v>8690.0</v>
       </c>
       <c r="AW4" t="n">
-        <v>43392</v>
+        <v>43392.0</v>
       </c>
       <c r="AX4" t="n">
-        <v>5200</v>
+        <v>5200.0</v>
       </c>
       <c r="AY4" t="n">
-        <v>8763</v>
+        <v>8763.0</v>
       </c>
       <c r="AZ4" t="n">
-        <v>13352</v>
+        <v>13352.0</v>
       </c>
       <c r="BA4" t="n">
-        <v>40449</v>
+        <v>40449.0</v>
       </c>
       <c r="BB4" t="n">
-        <v>120855</v>
+        <v>120855.0</v>
       </c>
       <c r="BC4" t="n">
-        <v>5723</v>
+        <v>5723.0</v>
       </c>
       <c r="BD4" t="n">
-        <v>47758</v>
+        <v>47758.0</v>
       </c>
       <c r="BE4" t="n">
-        <v>16875</v>
+        <v>16875.0</v>
       </c>
       <c r="BF4" t="n">
-        <v>10452</v>
+        <v>10452.0</v>
       </c>
       <c r="BG4" t="n">
-        <v>8611</v>
+        <v>8611.0</v>
       </c>
       <c r="BH4" t="n">
-        <v>84172</v>
+        <v>84172.0</v>
       </c>
       <c r="BI4" t="n">
-        <v>23595</v>
+        <v>23595.0</v>
       </c>
       <c r="BJ4" t="n">
-        <v>334982</v>
+        <v>334982.0</v>
       </c>
       <c r="BK4" t="n">
-        <v>218198</v>
+        <v>218198.0</v>
       </c>
       <c r="BL4" t="n">
-        <v>62411</v>
+        <v>62411.0</v>
       </c>
       <c r="BM4" t="n">
-        <v>98679</v>
+        <v>98679.0</v>
       </c>
       <c r="BN4" t="n">
-        <v>61173</v>
+        <v>61173.0</v>
       </c>
       <c r="BO4" t="n">
-        <v>10275</v>
+        <v>10275.0</v>
       </c>
       <c r="BP4" t="n">
-        <v>33579</v>
+        <v>33579.0</v>
       </c>
       <c r="BQ4" t="n">
-        <v>64590</v>
+        <v>64590.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" t="n">
-        <v>4601</v>
+        <v>4601.0</v>
       </c>
       <c r="C5" t="n">
-        <v>2972</v>
+        <v>2972.0</v>
       </c>
       <c r="D5" t="n">
-        <v>455</v>
+        <v>455.0</v>
       </c>
       <c r="E5" t="n">
-        <v>769</v>
+        <v>769.0</v>
       </c>
       <c r="F5" t="n">
-        <v>5928</v>
+        <v>5928.0</v>
       </c>
       <c r="G5" t="n">
-        <v>891</v>
+        <v>891.0</v>
       </c>
       <c r="H5" t="n">
-        <v>621</v>
+        <v>621.0</v>
       </c>
       <c r="I5" t="n">
-        <v>5931</v>
+        <v>5931.0</v>
       </c>
       <c r="J5" t="n">
-        <v>2413</v>
+        <v>2413.0</v>
       </c>
       <c r="K5" t="n">
-        <v>6839</v>
+        <v>6839.0</v>
       </c>
       <c r="L5" t="n">
-        <v>1901</v>
+        <v>1901.0</v>
       </c>
       <c r="M5" t="n">
-        <v>365</v>
+        <v>365.0</v>
       </c>
       <c r="N5" t="n">
-        <v>1805</v>
+        <v>1805.0</v>
       </c>
       <c r="O5" t="n">
-        <v>3835</v>
+        <v>3835.0</v>
       </c>
       <c r="P5" t="n">
-        <v>1805</v>
+        <v>1805.0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1069</v>
+        <v>1069.0</v>
       </c>
       <c r="R5" t="n">
-        <v>2554</v>
+        <v>2554.0</v>
       </c>
       <c r="S5" t="n">
-        <v>1031</v>
+        <v>1031.0</v>
       </c>
       <c r="T5" t="n">
-        <v>2847</v>
+        <v>2847.0</v>
       </c>
       <c r="U5" t="n">
-        <v>1549</v>
+        <v>1549.0</v>
       </c>
       <c r="V5" t="n">
-        <v>2891</v>
+        <v>2891.0</v>
       </c>
       <c r="W5" t="n">
-        <v>2088</v>
+        <v>2088.0</v>
       </c>
       <c r="X5" t="n">
-        <v>1128</v>
+        <v>1128.0</v>
       </c>
       <c r="Y5" t="n">
-        <v>2755</v>
+        <v>2755.0</v>
       </c>
       <c r="Z5" t="n">
-        <v>4437</v>
+        <v>4437.0</v>
       </c>
       <c r="AA5" t="n">
-        <v>3634</v>
+        <v>3634.0</v>
       </c>
       <c r="AB5" t="n">
-        <v>2716</v>
+        <v>2716.0</v>
       </c>
       <c r="AC5" t="n">
-        <v>1134</v>
+        <v>1134.0</v>
       </c>
       <c r="AD5" t="n">
-        <v>4751</v>
+        <v>4751.0</v>
       </c>
       <c r="AE5" t="n">
-        <v>1980</v>
+        <v>1980.0</v>
       </c>
       <c r="AF5" t="n">
-        <v>3024</v>
+        <v>3024.0</v>
       </c>
       <c r="AG5" t="n">
-        <v>5568</v>
+        <v>5568.0</v>
       </c>
       <c r="AH5" t="n">
-        <v>4537</v>
+        <v>4537.0</v>
       </c>
       <c r="AI5" t="n">
-        <v>2803</v>
+        <v>2803.0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1773</v>
+        <v>1773.0</v>
       </c>
       <c r="AK5" t="n">
-        <v>2756</v>
+        <v>2756.0</v>
       </c>
       <c r="AL5" t="n">
-        <v>2059</v>
+        <v>2059.0</v>
       </c>
       <c r="AM5" t="n">
-        <v>5483</v>
+        <v>5483.0</v>
       </c>
       <c r="AN5" t="n">
-        <v>4718</v>
+        <v>4718.0</v>
       </c>
       <c r="AO5" t="n">
-        <v>20840</v>
+        <v>20840.0</v>
       </c>
       <c r="AP5" t="n">
-        <v>8035</v>
+        <v>8035.0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>65304</v>
+        <v>65304.0</v>
       </c>
       <c r="AR5" t="n">
-        <v>15206</v>
+        <v>15206.0</v>
       </c>
       <c r="AS5" t="n">
-        <v>919</v>
+        <v>919.0</v>
       </c>
       <c r="AT5" t="n">
-        <v>1112</v>
+        <v>1112.0</v>
       </c>
       <c r="AU5" t="n">
-        <v>9736</v>
+        <v>9736.0</v>
       </c>
       <c r="AV5" t="n">
-        <v>1658</v>
+        <v>1658.0</v>
       </c>
       <c r="AW5" t="n">
-        <v>8203</v>
+        <v>8203.0</v>
       </c>
       <c r="AX5" t="n">
-        <v>1232</v>
+        <v>1232.0</v>
       </c>
       <c r="AY5" t="n">
-        <v>1691</v>
+        <v>1691.0</v>
       </c>
       <c r="AZ5" t="n">
-        <v>4576</v>
+        <v>4576.0</v>
       </c>
       <c r="BA5" t="n">
-        <v>10590</v>
+        <v>10590.0</v>
       </c>
       <c r="BB5" t="n">
-        <v>35911</v>
+        <v>35911.0</v>
       </c>
       <c r="BC5" t="n">
-        <v>1482</v>
+        <v>1482.0</v>
       </c>
       <c r="BD5" t="n">
-        <v>10704</v>
+        <v>10704.0</v>
       </c>
       <c r="BE5" t="n">
-        <v>4078</v>
+        <v>4078.0</v>
       </c>
       <c r="BF5" t="n">
-        <v>2658</v>
+        <v>2658.0</v>
       </c>
       <c r="BG5" t="n">
-        <v>2201</v>
+        <v>2201.0</v>
       </c>
       <c r="BH5" t="n">
-        <v>20412</v>
+        <v>20412.0</v>
       </c>
       <c r="BI5" t="n">
-        <v>6434</v>
+        <v>6434.0</v>
       </c>
       <c r="BJ5" t="n">
-        <v>60869</v>
+        <v>60869.0</v>
       </c>
       <c r="BK5" t="n">
-        <v>38870</v>
+        <v>38870.0</v>
       </c>
       <c r="BL5" t="n">
-        <v>13056</v>
+        <v>13056.0</v>
       </c>
       <c r="BM5" t="n">
-        <v>17062</v>
+        <v>17062.0</v>
       </c>
       <c r="BN5" t="n">
-        <v>9953</v>
+        <v>9953.0</v>
       </c>
       <c r="BO5" t="n">
-        <v>1720</v>
+        <v>1720.0</v>
       </c>
       <c r="BP5" t="n">
-        <v>6183</v>
+        <v>6183.0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>3688</v>
+        <v>3688.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" t="n">
-        <v>4600</v>
+        <v>4600.0</v>
       </c>
       <c r="C6" t="n">
-        <v>2971</v>
+        <v>2971.0</v>
       </c>
       <c r="D6" t="n">
-        <v>453</v>
+        <v>453.0</v>
       </c>
       <c r="E6" t="n">
-        <v>761</v>
+        <v>761.0</v>
       </c>
       <c r="F6" t="n">
-        <v>4686</v>
+        <v>4686.0</v>
       </c>
       <c r="G6" t="n">
-        <v>862</v>
+        <v>862.0</v>
       </c>
       <c r="H6" t="n">
-        <v>594</v>
+        <v>594.0</v>
       </c>
       <c r="I6" t="n">
-        <v>5818</v>
+        <v>5818.0</v>
       </c>
       <c r="J6" t="n">
-        <v>2388</v>
+        <v>2388.0</v>
       </c>
       <c r="K6" t="n">
-        <v>6670</v>
+        <v>6670.0</v>
       </c>
       <c r="L6" t="n">
-        <v>1839</v>
+        <v>1839.0</v>
       </c>
       <c r="M6" t="n">
-        <v>335</v>
+        <v>335.0</v>
       </c>
       <c r="N6" t="n">
-        <v>1782</v>
+        <v>1782.0</v>
       </c>
       <c r="O6" t="n">
-        <v>3795</v>
+        <v>3795.0</v>
       </c>
       <c r="P6" t="n">
-        <v>1783</v>
+        <v>1783.0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1036</v>
+        <v>1036.0</v>
       </c>
       <c r="R6" t="n">
-        <v>2325</v>
+        <v>2325.0</v>
       </c>
       <c r="S6" t="n">
-        <v>1001</v>
+        <v>1001.0</v>
       </c>
       <c r="T6" t="n">
-        <v>2171</v>
+        <v>2171.0</v>
       </c>
       <c r="U6" t="n">
-        <v>1519</v>
+        <v>1519.0</v>
       </c>
       <c r="V6" t="n">
-        <v>2654</v>
+        <v>2654.0</v>
       </c>
       <c r="W6" t="n">
-        <v>1938</v>
+        <v>1938.0</v>
       </c>
       <c r="X6" t="n">
-        <v>1103</v>
+        <v>1103.0</v>
       </c>
       <c r="Y6" t="n">
-        <v>2608</v>
+        <v>2608.0</v>
       </c>
       <c r="Z6" t="n">
-        <v>4337</v>
+        <v>4337.0</v>
       </c>
       <c r="AA6" t="n">
-        <v>3507</v>
+        <v>3507.0</v>
       </c>
       <c r="AB6" t="n">
-        <v>2492</v>
+        <v>2492.0</v>
       </c>
       <c r="AC6" t="n">
-        <v>1083</v>
+        <v>1083.0</v>
       </c>
       <c r="AD6" t="n">
-        <v>4663</v>
+        <v>4663.0</v>
       </c>
       <c r="AE6" t="n">
-        <v>1935</v>
+        <v>1935.0</v>
       </c>
       <c r="AF6" t="n">
-        <v>2931</v>
+        <v>2931.0</v>
       </c>
       <c r="AG6" t="n">
-        <v>5366</v>
+        <v>5366.0</v>
       </c>
       <c r="AH6" t="n">
-        <v>4357</v>
+        <v>4357.0</v>
       </c>
       <c r="AI6" t="n">
-        <v>2721</v>
+        <v>2721.0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1656</v>
+        <v>1656.0</v>
       </c>
       <c r="AK6" t="n">
-        <v>2703</v>
+        <v>2703.0</v>
       </c>
       <c r="AL6" t="n">
-        <v>1989</v>
+        <v>1989.0</v>
       </c>
       <c r="AM6" t="n">
-        <v>4293</v>
+        <v>4293.0</v>
       </c>
       <c r="AN6" t="n">
-        <v>4310</v>
+        <v>4310.0</v>
       </c>
       <c r="AO6" t="n">
-        <v>20490</v>
+        <v>20490.0</v>
       </c>
       <c r="AP6" t="n">
-        <v>7983</v>
+        <v>7983.0</v>
       </c>
       <c r="AQ6" t="n">
-        <v>64506</v>
+        <v>64506.0</v>
       </c>
       <c r="AR6" t="n">
-        <v>14760</v>
+        <v>14760.0</v>
       </c>
       <c r="AS6" t="n">
-        <v>889</v>
+        <v>889.0</v>
       </c>
       <c r="AT6" t="n">
-        <v>1091</v>
+        <v>1091.0</v>
       </c>
       <c r="AU6" t="n">
-        <v>8682</v>
+        <v>8682.0</v>
       </c>
       <c r="AV6" t="n">
-        <v>1627</v>
+        <v>1627.0</v>
       </c>
       <c r="AW6" t="n">
-        <v>8153</v>
+        <v>8153.0</v>
       </c>
       <c r="AX6" t="n">
-        <v>1204</v>
+        <v>1204.0</v>
       </c>
       <c r="AY6" t="n">
-        <v>1638</v>
+        <v>1638.0</v>
       </c>
       <c r="AZ6" t="n">
-        <v>3778</v>
+        <v>3778.0</v>
       </c>
       <c r="BA6" t="n">
-        <v>10031</v>
+        <v>10031.0</v>
       </c>
       <c r="BB6" t="n">
-        <v>30480</v>
+        <v>30480.0</v>
       </c>
       <c r="BC6" t="n">
-        <v>1441</v>
+        <v>1441.0</v>
       </c>
       <c r="BD6" t="n">
-        <v>9731</v>
+        <v>9731.0</v>
       </c>
       <c r="BE6" t="n">
-        <v>3953</v>
+        <v>3953.0</v>
       </c>
       <c r="BF6" t="n">
-        <v>2629</v>
+        <v>2629.0</v>
       </c>
       <c r="BG6" t="n">
-        <v>2166</v>
+        <v>2166.0</v>
       </c>
       <c r="BH6" t="n">
-        <v>20213</v>
+        <v>20213.0</v>
       </c>
       <c r="BI6" t="n">
-        <v>6385</v>
+        <v>6385.0</v>
       </c>
       <c r="BJ6" t="n">
-        <v>60337</v>
+        <v>60337.0</v>
       </c>
       <c r="BK6" t="n">
-        <v>38781</v>
+        <v>38781.0</v>
       </c>
       <c r="BL6" t="n">
-        <v>13036</v>
+        <v>13036.0</v>
       </c>
       <c r="BM6" t="n">
-        <v>17042</v>
+        <v>17042.0</v>
       </c>
       <c r="BN6" t="n">
-        <v>9906</v>
+        <v>9906.0</v>
       </c>
       <c r="BO6" t="n">
-        <v>1686</v>
+        <v>1686.0</v>
       </c>
       <c r="BP6" t="n">
-        <v>6096</v>
+        <v>6096.0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>3688</v>
+        <v>3688.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>1.0</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>2.0</v>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>8.0</v>
       </c>
       <c r="F7" t="n">
-        <v>1242</v>
+        <v>1242.0</v>
       </c>
       <c r="G7" t="n">
-        <v>29</v>
+        <v>29.0</v>
       </c>
       <c r="H7" t="n">
-        <v>27</v>
+        <v>27.0</v>
       </c>
       <c r="I7" t="n">
-        <v>113</v>
+        <v>113.0</v>
       </c>
       <c r="J7" t="n">
-        <v>25</v>
+        <v>25.0</v>
       </c>
       <c r="K7" t="n">
-        <v>169</v>
+        <v>169.0</v>
       </c>
       <c r="L7" t="n">
-        <v>62</v>
+        <v>62.0</v>
       </c>
       <c r="M7" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="N7" t="n">
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="O7" t="n">
-        <v>40</v>
+        <v>40.0</v>
       </c>
       <c r="P7" t="n">
-        <v>22</v>
+        <v>22.0</v>
       </c>
       <c r="Q7" t="n">
-        <v>33</v>
+        <v>33.0</v>
       </c>
       <c r="R7" t="n">
-        <v>229</v>
+        <v>229.0</v>
       </c>
       <c r="S7" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="T7" t="n">
-        <v>676</v>
+        <v>676.0</v>
       </c>
       <c r="U7" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="V7" t="n">
-        <v>237</v>
+        <v>237.0</v>
       </c>
       <c r="W7" t="n">
-        <v>150</v>
+        <v>150.0</v>
       </c>
       <c r="X7" t="n">
-        <v>25</v>
+        <v>25.0</v>
       </c>
       <c r="Y7" t="n">
-        <v>147</v>
+        <v>147.0</v>
       </c>
       <c r="Z7" t="n">
-        <v>100</v>
+        <v>100.0</v>
       </c>
       <c r="AA7" t="n">
-        <v>127</v>
+        <v>127.0</v>
       </c>
       <c r="AB7" t="n">
-        <v>224</v>
+        <v>224.0</v>
       </c>
       <c r="AC7" t="n">
-        <v>51</v>
+        <v>51.0</v>
       </c>
       <c r="AD7" t="n">
-        <v>88</v>
+        <v>88.0</v>
       </c>
       <c r="AE7" t="n">
-        <v>45</v>
+        <v>45.0</v>
       </c>
       <c r="AF7" t="n">
-        <v>93</v>
+        <v>93.0</v>
       </c>
       <c r="AG7" t="n">
-        <v>202</v>
+        <v>202.0</v>
       </c>
       <c r="AH7" t="n">
-        <v>180</v>
+        <v>180.0</v>
       </c>
       <c r="AI7" t="n">
-        <v>82</v>
+        <v>82.0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>117</v>
+        <v>117.0</v>
       </c>
       <c r="AK7" t="n">
-        <v>53</v>
+        <v>53.0</v>
       </c>
       <c r="AL7" t="n">
-        <v>70</v>
+        <v>70.0</v>
       </c>
       <c r="AM7" t="n">
-        <v>1190</v>
+        <v>1190.0</v>
       </c>
       <c r="AN7" t="n">
-        <v>408</v>
+        <v>408.0</v>
       </c>
       <c r="AO7" t="n">
-        <v>350</v>
+        <v>350.0</v>
       </c>
       <c r="AP7" t="n">
-        <v>52</v>
+        <v>52.0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>798</v>
+        <v>798.0</v>
       </c>
       <c r="AR7" t="n">
-        <v>446</v>
+        <v>446.0</v>
       </c>
       <c r="AS7" t="n">
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="AT7" t="n">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="AU7" t="n">
-        <v>1054</v>
+        <v>1054.0</v>
       </c>
       <c r="AV7" t="n">
-        <v>31</v>
+        <v>31.0</v>
       </c>
       <c r="AW7" t="n">
-        <v>50</v>
+        <v>50.0</v>
       </c>
       <c r="AX7" t="n">
-        <v>28</v>
+        <v>28.0</v>
       </c>
       <c r="AY7" t="n">
-        <v>53</v>
+        <v>53.0</v>
       </c>
       <c r="AZ7" t="n">
-        <v>798</v>
+        <v>798.0</v>
       </c>
       <c r="BA7" t="n">
-        <v>559</v>
+        <v>559.0</v>
       </c>
       <c r="BB7" t="n">
-        <v>5431</v>
+        <v>5431.0</v>
       </c>
       <c r="BC7" t="n">
-        <v>41</v>
+        <v>41.0</v>
       </c>
       <c r="BD7" t="n">
-        <v>973</v>
+        <v>973.0</v>
       </c>
       <c r="BE7" t="n">
-        <v>125</v>
+        <v>125.0</v>
       </c>
       <c r="BF7" t="n">
-        <v>29</v>
+        <v>29.0</v>
       </c>
       <c r="BG7" t="n">
-        <v>35</v>
+        <v>35.0</v>
       </c>
       <c r="BH7" t="n">
-        <v>199</v>
+        <v>199.0</v>
       </c>
       <c r="BI7" t="n">
-        <v>49</v>
+        <v>49.0</v>
       </c>
       <c r="BJ7" t="n">
-        <v>532</v>
+        <v>532.0</v>
       </c>
       <c r="BK7" t="n">
-        <v>89</v>
+        <v>89.0</v>
       </c>
       <c r="BL7" t="n">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="BM7" t="n">
-        <v>20</v>
+        <v>20.0</v>
       </c>
       <c r="BN7" t="n">
-        <v>47</v>
+        <v>47.0</v>
       </c>
       <c r="BO7" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="BP7" t="n">
-        <v>87</v>
+        <v>87.0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AP8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AT8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AV8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AW8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AX8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AY8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BA8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BB8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BC8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BE8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BF8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BG8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BH8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BI8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ8" t="n">
-        <v>69536</v>
+        <v>69536.0</v>
       </c>
       <c r="BK8" t="n">
-        <v>3029</v>
+        <v>3029.0</v>
       </c>
       <c r="BL8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BM8" t="n">
-        <v>5780</v>
+        <v>5780.0</v>
       </c>
       <c r="BN8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BO8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BP8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" t="n">
-        <v>183900</v>
+        <v>183900.0</v>
       </c>
       <c r="C9" t="n">
-        <v>54402</v>
+        <v>54402.0</v>
       </c>
       <c r="D9" t="n">
-        <v>22618</v>
+        <v>22618.0</v>
       </c>
       <c r="E9" t="n">
-        <v>3762</v>
+        <v>3762.0</v>
       </c>
       <c r="F9" t="n">
-        <v>-890</v>
+        <v>-890.0</v>
       </c>
       <c r="G9" t="n">
-        <v>16980</v>
+        <v>16980.0</v>
       </c>
       <c r="H9" t="n">
-        <v>1323</v>
+        <v>1323.0</v>
       </c>
       <c r="I9" t="n">
-        <v>11363</v>
+        <v>11363.0</v>
       </c>
       <c r="J9" t="n">
-        <v>1672</v>
+        <v>1672.0</v>
       </c>
       <c r="K9" t="n">
-        <v>15344</v>
+        <v>15344.0</v>
       </c>
       <c r="L9" t="n">
-        <v>11162</v>
+        <v>11162.0</v>
       </c>
       <c r="M9" t="n">
-        <v>2172</v>
+        <v>2172.0</v>
       </c>
       <c r="N9" t="n">
-        <v>3049</v>
+        <v>3049.0</v>
       </c>
       <c r="O9" t="n">
-        <v>7458</v>
+        <v>7458.0</v>
       </c>
       <c r="P9" t="n">
-        <v>3457</v>
+        <v>3457.0</v>
       </c>
       <c r="Q9" t="n">
-        <v>3294</v>
+        <v>3294.0</v>
       </c>
       <c r="R9" t="n">
-        <v>12803</v>
+        <v>12803.0</v>
       </c>
       <c r="S9" t="n">
-        <v>3553</v>
+        <v>3553.0</v>
       </c>
       <c r="T9" t="n">
-        <v>59871</v>
+        <v>59871.0</v>
       </c>
       <c r="U9" t="n">
-        <v>4308</v>
+        <v>4308.0</v>
       </c>
       <c r="V9" t="n">
-        <v>17625</v>
+        <v>17625.0</v>
       </c>
       <c r="W9" t="n">
-        <v>6268</v>
+        <v>6268.0</v>
       </c>
       <c r="X9" t="n">
-        <v>4655</v>
+        <v>4655.0</v>
       </c>
       <c r="Y9" t="n">
-        <v>13920</v>
+        <v>13920.0</v>
       </c>
       <c r="Z9" t="n">
-        <v>7340</v>
+        <v>7340.0</v>
       </c>
       <c r="AA9" t="n">
-        <v>5378</v>
+        <v>5378.0</v>
       </c>
       <c r="AB9" t="n">
-        <v>2558</v>
+        <v>2558.0</v>
       </c>
       <c r="AC9" t="n">
-        <v>6811</v>
+        <v>6811.0</v>
       </c>
       <c r="AD9" t="n">
-        <v>11720</v>
+        <v>11720.0</v>
       </c>
       <c r="AE9" t="n">
-        <v>5288</v>
+        <v>5288.0</v>
       </c>
       <c r="AF9" t="n">
-        <v>5951</v>
+        <v>5951.0</v>
       </c>
       <c r="AG9" t="n">
-        <v>5459</v>
+        <v>5459.0</v>
       </c>
       <c r="AH9" t="n">
-        <v>-7218</v>
+        <v>-7218.0</v>
       </c>
       <c r="AI9" t="n">
-        <v>1929</v>
+        <v>1929.0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1881</v>
+        <v>1881.0</v>
       </c>
       <c r="AK9" t="n">
-        <v>15439</v>
+        <v>15439.0</v>
       </c>
       <c r="AL9" t="n">
-        <v>11400</v>
+        <v>11400.0</v>
       </c>
       <c r="AM9" t="n">
-        <v>79998</v>
+        <v>79998.0</v>
       </c>
       <c r="AN9" t="n">
-        <v>23983</v>
+        <v>23983.0</v>
       </c>
       <c r="AO9" t="n">
-        <v>159216</v>
+        <v>159216.0</v>
       </c>
       <c r="AP9" t="n">
-        <v>43552</v>
+        <v>43552.0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>282213</v>
+        <v>282213.0</v>
       </c>
       <c r="AR9" t="n">
-        <v>65862</v>
+        <v>65862.0</v>
       </c>
       <c r="AS9" t="n">
-        <v>4029</v>
+        <v>4029.0</v>
       </c>
       <c r="AT9" t="n">
-        <v>2818</v>
+        <v>2818.0</v>
       </c>
       <c r="AU9" t="n">
-        <v>23913</v>
+        <v>23913.0</v>
       </c>
       <c r="AV9" t="n">
-        <v>2630</v>
+        <v>2630.0</v>
       </c>
       <c r="AW9" t="n">
-        <v>61435</v>
+        <v>61435.0</v>
       </c>
       <c r="AX9" t="n">
-        <v>1467</v>
+        <v>1467.0</v>
       </c>
       <c r="AY9" t="n">
-        <v>6309</v>
+        <v>6309.0</v>
       </c>
       <c r="AZ9" t="n">
-        <v>43933</v>
+        <v>43933.0</v>
       </c>
       <c r="BA9" t="n">
-        <v>33945</v>
+        <v>33945.0</v>
       </c>
       <c r="BB9" t="n">
-        <v>261574</v>
+        <v>261574.0</v>
       </c>
       <c r="BC9" t="n">
-        <v>519378</v>
+        <v>519378.0</v>
       </c>
       <c r="BD9" t="n">
-        <v>80445</v>
+        <v>80445.0</v>
       </c>
       <c r="BE9" t="n">
-        <v>18526</v>
+        <v>18526.0</v>
       </c>
       <c r="BF9" t="n">
-        <v>21628</v>
+        <v>21628.0</v>
       </c>
       <c r="BG9" t="n">
-        <v>16147</v>
+        <v>16147.0</v>
       </c>
       <c r="BH9" t="n">
-        <v>50818</v>
+        <v>50818.0</v>
       </c>
       <c r="BI9" t="n">
-        <v>2203</v>
+        <v>2203.0</v>
       </c>
       <c r="BJ9" t="n">
-        <v>79231</v>
+        <v>79231.0</v>
       </c>
       <c r="BK9" t="n">
-        <v>12566</v>
+        <v>12566.0</v>
       </c>
       <c r="BL9" t="n">
-        <v>6656</v>
+        <v>6656.0</v>
       </c>
       <c r="BM9" t="n">
-        <v>6161</v>
+        <v>6161.0</v>
       </c>
       <c r="BN9" t="n">
-        <v>68063</v>
+        <v>68063.0</v>
       </c>
       <c r="BO9" t="n">
-        <v>8143</v>
+        <v>8143.0</v>
       </c>
       <c r="BP9" t="n">
-        <v>31675</v>
+        <v>31675.0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B10" t="n">
-        <v>94570</v>
+        <v>94570.0</v>
       </c>
       <c r="C10" t="n">
-        <v>41779</v>
+        <v>41779.0</v>
       </c>
       <c r="D10" t="n">
-        <v>11428</v>
+        <v>11428.0</v>
       </c>
       <c r="E10" t="n">
-        <v>240</v>
+        <v>240.0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I10" t="n">
-        <v>355</v>
+        <v>355.0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="K10" t="n">
-        <v>3054</v>
+        <v>3054.0</v>
       </c>
       <c r="L10" t="n">
-        <v>21</v>
+        <v>21.0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="N10" t="n">
-        <v>1374</v>
+        <v>1374.0</v>
       </c>
       <c r="O10" t="n">
-        <v>5938</v>
+        <v>5938.0</v>
       </c>
       <c r="P10" t="n">
-        <v>581</v>
+        <v>581.0</v>
       </c>
       <c r="Q10" t="n">
-        <v>1632</v>
+        <v>1632.0</v>
       </c>
       <c r="R10" t="n">
-        <v>272</v>
+        <v>272.0</v>
       </c>
       <c r="S10" t="n">
-        <v>483</v>
+        <v>483.0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="X10" t="n">
-        <v>511</v>
+        <v>511.0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Z10" t="n">
-        <v>241</v>
+        <v>241.0</v>
       </c>
       <c r="AA10" t="n">
-        <v>812</v>
+        <v>812.0</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AC10" t="n">
-        <v>-13</v>
+        <v>-13.0</v>
       </c>
       <c r="AD10" t="n">
-        <v>2498</v>
+        <v>2498.0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AI10" t="n">
-        <v>34</v>
+        <v>34.0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="AK10" t="n">
-        <v>1326</v>
+        <v>1326.0</v>
       </c>
       <c r="AL10" t="n">
-        <v>4585</v>
+        <v>4585.0</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AN10" t="n">
-        <v>1500</v>
+        <v>1500.0</v>
       </c>
       <c r="AO10" t="n">
-        <v>72940</v>
+        <v>72940.0</v>
       </c>
       <c r="AP10" t="n">
-        <v>20904</v>
+        <v>20904.0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>58291</v>
+        <v>58291.0</v>
       </c>
       <c r="AR10" t="n">
-        <v>24499</v>
+        <v>24499.0</v>
       </c>
       <c r="AS10" t="n">
-        <v>499</v>
+        <v>499.0</v>
       </c>
       <c r="AT10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AU10" t="n">
-        <v>927</v>
+        <v>927.0</v>
       </c>
       <c r="AV10" t="n">
-        <v>1029</v>
+        <v>1029.0</v>
       </c>
       <c r="AW10" t="n">
-        <v>36757</v>
+        <v>36757.0</v>
       </c>
       <c r="AX10" t="n">
-        <v>264</v>
+        <v>264.0</v>
       </c>
       <c r="AY10" t="n">
-        <v>961</v>
+        <v>961.0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>568</v>
+        <v>568.0</v>
       </c>
       <c r="BA10" t="n">
-        <v>6478</v>
+        <v>6478.0</v>
       </c>
       <c r="BB10" t="n">
-        <v>1937</v>
+        <v>1937.0</v>
       </c>
       <c r="BC10" t="n">
-        <v>4265</v>
+        <v>4265.0</v>
       </c>
       <c r="BD10" t="n">
-        <v>31117</v>
+        <v>31117.0</v>
       </c>
       <c r="BE10" t="n">
-        <v>8433</v>
+        <v>8433.0</v>
       </c>
       <c r="BF10" t="n">
-        <v>6514</v>
+        <v>6514.0</v>
       </c>
       <c r="BG10" t="n">
-        <v>610</v>
+        <v>610.0</v>
       </c>
       <c r="BH10" t="n">
-        <v>6076</v>
+        <v>6076.0</v>
       </c>
       <c r="BI10" t="n">
-        <v>1041</v>
+        <v>1041.0</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BK10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BL10" t="n">
-        <v>5723</v>
+        <v>5723.0</v>
       </c>
       <c r="BM10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BN10" t="n">
-        <v>35244</v>
+        <v>35244.0</v>
       </c>
       <c r="BO10" t="n">
-        <v>5893</v>
+        <v>5893.0</v>
       </c>
       <c r="BP10" t="n">
-        <v>24584</v>
+        <v>24584.0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" t="n">
-        <v>89330</v>
+        <v>89330.0</v>
       </c>
       <c r="C11" t="n">
-        <v>12623</v>
+        <v>12623.0</v>
       </c>
       <c r="D11" t="n">
-        <v>11190</v>
+        <v>11190.0</v>
       </c>
       <c r="E11" t="n">
-        <v>3522</v>
+        <v>3522.0</v>
       </c>
       <c r="F11" t="n">
-        <v>-890</v>
+        <v>-890.0</v>
       </c>
       <c r="G11" t="n">
-        <v>16980</v>
+        <v>16980.0</v>
       </c>
       <c r="H11" t="n">
-        <v>1323</v>
+        <v>1323.0</v>
       </c>
       <c r="I11" t="n">
-        <v>11008</v>
+        <v>11008.0</v>
       </c>
       <c r="J11" t="n">
-        <v>1672</v>
+        <v>1672.0</v>
       </c>
       <c r="K11" t="n">
-        <v>12290</v>
+        <v>12290.0</v>
       </c>
       <c r="L11" t="n">
-        <v>11141</v>
+        <v>11141.0</v>
       </c>
       <c r="M11" t="n">
-        <v>2172</v>
+        <v>2172.0</v>
       </c>
       <c r="N11" t="n">
-        <v>1675</v>
+        <v>1675.0</v>
       </c>
       <c r="O11" t="n">
-        <v>1520</v>
+        <v>1520.0</v>
       </c>
       <c r="P11" t="n">
-        <v>2876</v>
+        <v>2876.0</v>
       </c>
       <c r="Q11" t="n">
-        <v>1662</v>
+        <v>1662.0</v>
       </c>
       <c r="R11" t="n">
-        <v>12531</v>
+        <v>12531.0</v>
       </c>
       <c r="S11" t="n">
-        <v>3070</v>
+        <v>3070.0</v>
       </c>
       <c r="T11" t="n">
-        <v>59871</v>
+        <v>59871.0</v>
       </c>
       <c r="U11" t="n">
-        <v>4308</v>
+        <v>4308.0</v>
       </c>
       <c r="V11" t="n">
-        <v>17625</v>
+        <v>17625.0</v>
       </c>
       <c r="W11" t="n">
-        <v>6268</v>
+        <v>6268.0</v>
       </c>
       <c r="X11" t="n">
-        <v>4144</v>
+        <v>4144.0</v>
       </c>
       <c r="Y11" t="n">
-        <v>13920</v>
+        <v>13920.0</v>
       </c>
       <c r="Z11" t="n">
-        <v>7099</v>
+        <v>7099.0</v>
       </c>
       <c r="AA11" t="n">
-        <v>4566</v>
+        <v>4566.0</v>
       </c>
       <c r="AB11" t="n">
-        <v>2558</v>
+        <v>2558.0</v>
       </c>
       <c r="AC11" t="n">
-        <v>6824</v>
+        <v>6824.0</v>
       </c>
       <c r="AD11" t="n">
-        <v>9222</v>
+        <v>9222.0</v>
       </c>
       <c r="AE11" t="n">
-        <v>5288</v>
+        <v>5288.0</v>
       </c>
       <c r="AF11" t="n">
-        <v>5951</v>
+        <v>5951.0</v>
       </c>
       <c r="AG11" t="n">
-        <v>5459</v>
+        <v>5459.0</v>
       </c>
       <c r="AH11" t="n">
-        <v>-7218</v>
+        <v>-7218.0</v>
       </c>
       <c r="AI11" t="n">
-        <v>1895</v>
+        <v>1895.0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1876</v>
+        <v>1876.0</v>
       </c>
       <c r="AK11" t="n">
-        <v>14113</v>
+        <v>14113.0</v>
       </c>
       <c r="AL11" t="n">
-        <v>6815</v>
+        <v>6815.0</v>
       </c>
       <c r="AM11" t="n">
-        <v>79998</v>
+        <v>79998.0</v>
       </c>
       <c r="AN11" t="n">
-        <v>22483</v>
+        <v>22483.0</v>
       </c>
       <c r="AO11" t="n">
-        <v>86276</v>
+        <v>86276.0</v>
       </c>
       <c r="AP11" t="n">
-        <v>22648</v>
+        <v>22648.0</v>
       </c>
       <c r="AQ11" t="n">
-        <v>223922</v>
+        <v>223922.0</v>
       </c>
       <c r="AR11" t="n">
-        <v>41363</v>
+        <v>41363.0</v>
       </c>
       <c r="AS11" t="n">
-        <v>3530</v>
+        <v>3530.0</v>
       </c>
       <c r="AT11" t="n">
-        <v>2818</v>
+        <v>2818.0</v>
       </c>
       <c r="AU11" t="n">
-        <v>22986</v>
+        <v>22986.0</v>
       </c>
       <c r="AV11" t="n">
-        <v>1601</v>
+        <v>1601.0</v>
       </c>
       <c r="AW11" t="n">
-        <v>24678</v>
+        <v>24678.0</v>
       </c>
       <c r="AX11" t="n">
-        <v>1203</v>
+        <v>1203.0</v>
       </c>
       <c r="AY11" t="n">
-        <v>5348</v>
+        <v>5348.0</v>
       </c>
       <c r="AZ11" t="n">
-        <v>43365</v>
+        <v>43365.0</v>
       </c>
       <c r="BA11" t="n">
-        <v>27467</v>
+        <v>27467.0</v>
       </c>
       <c r="BB11" t="n">
-        <v>259637</v>
+        <v>259637.0</v>
       </c>
       <c r="BC11" t="n">
-        <v>515113</v>
+        <v>515113.0</v>
       </c>
       <c r="BD11" t="n">
-        <v>49328</v>
+        <v>49328.0</v>
       </c>
       <c r="BE11" t="n">
-        <v>10093</v>
+        <v>10093.0</v>
       </c>
       <c r="BF11" t="n">
-        <v>15114</v>
+        <v>15114.0</v>
       </c>
       <c r="BG11" t="n">
-        <v>15537</v>
+        <v>15537.0</v>
       </c>
       <c r="BH11" t="n">
-        <v>44742</v>
+        <v>44742.0</v>
       </c>
       <c r="BI11" t="n">
-        <v>1162</v>
+        <v>1162.0</v>
       </c>
       <c r="BJ11" t="n">
-        <v>79231</v>
+        <v>79231.0</v>
       </c>
       <c r="BK11" t="n">
-        <v>12566</v>
+        <v>12566.0</v>
       </c>
       <c r="BL11" t="n">
-        <v>933</v>
+        <v>933.0</v>
       </c>
       <c r="BM11" t="n">
-        <v>6161</v>
+        <v>6161.0</v>
       </c>
       <c r="BN11" t="n">
-        <v>32819</v>
+        <v>32819.0</v>
       </c>
       <c r="BO11" t="n">
-        <v>2250</v>
+        <v>2250.0</v>
       </c>
       <c r="BP11" t="n">
-        <v>7091</v>
+        <v>7091.0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" t="n">
-        <v>1528</v>
+        <v>1528.0</v>
       </c>
       <c r="C12" t="n">
-        <v>653</v>
+        <v>653.0</v>
       </c>
       <c r="D12" t="n">
-        <v>136</v>
+        <v>136.0</v>
       </c>
       <c r="E12" t="n">
-        <v>184</v>
+        <v>184.0</v>
       </c>
       <c r="F12" t="n">
-        <v>1064</v>
+        <v>1064.0</v>
       </c>
       <c r="G12" t="n">
-        <v>364</v>
+        <v>364.0</v>
       </c>
       <c r="H12" t="n">
-        <v>146</v>
+        <v>146.0</v>
       </c>
       <c r="I12" t="n">
-        <v>2142</v>
+        <v>2142.0</v>
       </c>
       <c r="J12" t="n">
-        <v>766</v>
+        <v>766.0</v>
       </c>
       <c r="K12" t="n">
-        <v>2457</v>
+        <v>2457.0</v>
       </c>
       <c r="L12" t="n">
-        <v>705</v>
+        <v>705.0</v>
       </c>
       <c r="M12" t="n">
-        <v>111</v>
+        <v>111.0</v>
       </c>
       <c r="N12" t="n">
-        <v>450</v>
+        <v>450.0</v>
       </c>
       <c r="O12" t="n">
-        <v>616</v>
+        <v>616.0</v>
       </c>
       <c r="P12" t="n">
-        <v>444</v>
+        <v>444.0</v>
       </c>
       <c r="Q12" t="n">
-        <v>261</v>
+        <v>261.0</v>
       </c>
       <c r="R12" t="n">
-        <v>742</v>
+        <v>742.0</v>
       </c>
       <c r="S12" t="n">
-        <v>243</v>
+        <v>243.0</v>
       </c>
       <c r="T12" t="n">
-        <v>1052</v>
+        <v>1052.0</v>
       </c>
       <c r="U12" t="n">
-        <v>400</v>
+        <v>400.0</v>
       </c>
       <c r="V12" t="n">
-        <v>1093</v>
+        <v>1093.0</v>
       </c>
       <c r="W12" t="n">
-        <v>627</v>
+        <v>627.0</v>
       </c>
       <c r="X12" t="n">
-        <v>388</v>
+        <v>388.0</v>
       </c>
       <c r="Y12" t="n">
-        <v>573</v>
+        <v>573.0</v>
       </c>
       <c r="Z12" t="n">
-        <v>1021</v>
+        <v>1021.0</v>
       </c>
       <c r="AA12" t="n">
-        <v>873</v>
+        <v>873.0</v>
       </c>
       <c r="AB12" t="n">
-        <v>794</v>
+        <v>794.0</v>
       </c>
       <c r="AC12" t="n">
-        <v>423</v>
+        <v>423.0</v>
       </c>
       <c r="AD12" t="n">
-        <v>979</v>
+        <v>979.0</v>
       </c>
       <c r="AE12" t="n">
-        <v>717</v>
+        <v>717.0</v>
       </c>
       <c r="AF12" t="n">
-        <v>738</v>
+        <v>738.0</v>
       </c>
       <c r="AG12" t="n">
-        <v>1235</v>
+        <v>1235.0</v>
       </c>
       <c r="AH12" t="n">
-        <v>1186</v>
+        <v>1186.0</v>
       </c>
       <c r="AI12" t="n">
-        <v>846</v>
+        <v>846.0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>476</v>
+        <v>476.0</v>
       </c>
       <c r="AK12" t="n">
-        <v>669</v>
+        <v>669.0</v>
       </c>
       <c r="AL12" t="n">
-        <v>413</v>
+        <v>413.0</v>
       </c>
       <c r="AM12" t="n">
-        <v>2118</v>
+        <v>2118.0</v>
       </c>
       <c r="AN12" t="n">
-        <v>749</v>
+        <v>749.0</v>
       </c>
       <c r="AO12" t="n">
-        <v>4097</v>
+        <v>4097.0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1367</v>
+        <v>1367.0</v>
       </c>
       <c r="AQ12" t="n">
-        <v>10790</v>
+        <v>10790.0</v>
       </c>
       <c r="AR12" t="n">
-        <v>3123</v>
+        <v>3123.0</v>
       </c>
       <c r="AS12" t="n">
-        <v>385</v>
+        <v>385.0</v>
       </c>
       <c r="AT12" t="n">
-        <v>579</v>
+        <v>579.0</v>
       </c>
       <c r="AU12" t="n">
-        <v>1600</v>
+        <v>1600.0</v>
       </c>
       <c r="AV12" t="n">
-        <v>346</v>
+        <v>346.0</v>
       </c>
       <c r="AW12" t="n">
-        <v>1475</v>
+        <v>1475.0</v>
       </c>
       <c r="AX12" t="n">
-        <v>244</v>
+        <v>244.0</v>
       </c>
       <c r="AY12" t="n">
-        <v>1040</v>
+        <v>1040.0</v>
       </c>
       <c r="AZ12" t="n">
-        <v>4659</v>
+        <v>4659.0</v>
       </c>
       <c r="BA12" t="n">
-        <v>1688</v>
+        <v>1688.0</v>
       </c>
       <c r="BB12" t="n">
-        <v>7192</v>
+        <v>7192.0</v>
       </c>
       <c r="BC12" t="n">
-        <v>423</v>
+        <v>423.0</v>
       </c>
       <c r="BD12" t="n">
-        <v>2350</v>
+        <v>2350.0</v>
       </c>
       <c r="BE12" t="n">
-        <v>732</v>
+        <v>732.0</v>
       </c>
       <c r="BF12" t="n">
-        <v>437</v>
+        <v>437.0</v>
       </c>
       <c r="BG12" t="n">
-        <v>469</v>
+        <v>469.0</v>
       </c>
       <c r="BH12" t="n">
-        <v>2892</v>
+        <v>2892.0</v>
       </c>
       <c r="BI12" t="n">
-        <v>1668</v>
+        <v>1668.0</v>
       </c>
       <c r="BJ12" t="n">
-        <v>140</v>
+        <v>140.0</v>
       </c>
       <c r="BK12" t="n">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="BL12" t="n">
-        <v>2080</v>
+        <v>2080.0</v>
       </c>
       <c r="BM12" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BN12" t="n">
-        <v>2426</v>
+        <v>2426.0</v>
       </c>
       <c r="BO12" t="n">
-        <v>267</v>
+        <v>267.0</v>
       </c>
       <c r="BP12" t="n">
-        <v>1093</v>
+        <v>1093.0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B13" t="n">
-        <v>-12214</v>
+        <v>-12214.0</v>
       </c>
       <c r="C13" t="n">
-        <v>-191</v>
+        <v>-191.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-47</v>
+        <v>-47.0</v>
       </c>
       <c r="E13" t="n">
-        <v>-103</v>
+        <v>-103.0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G13" t="n">
-        <v>-41</v>
+        <v>-41.0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="I13" t="n">
-        <v>-138</v>
+        <v>-138.0</v>
       </c>
       <c r="J13" t="n">
-        <v>-192</v>
+        <v>-192.0</v>
       </c>
       <c r="K13" t="n">
-        <v>-178</v>
+        <v>-178.0</v>
       </c>
       <c r="L13" t="n">
-        <v>-53</v>
+        <v>-53.0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="N13" t="n">
-        <v>-35</v>
+        <v>-35.0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-52</v>
+        <v>-52.0</v>
       </c>
       <c r="R13" t="n">
-        <v>-134</v>
+        <v>-134.0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="T13" t="n">
-        <v>-253</v>
+        <v>-253.0</v>
       </c>
       <c r="U13" t="n">
-        <v>-225</v>
+        <v>-225.0</v>
       </c>
       <c r="V13" t="n">
-        <v>-51</v>
+        <v>-51.0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-35</v>
+        <v>-35.0</v>
       </c>
       <c r="Z13" t="n">
-        <v>-202</v>
+        <v>-202.0</v>
       </c>
       <c r="AA13" t="n">
-        <v>-167</v>
+        <v>-167.0</v>
       </c>
       <c r="AB13" t="n">
-        <v>-91</v>
+        <v>-91.0</v>
       </c>
       <c r="AC13" t="n">
-        <v>-47</v>
+        <v>-47.0</v>
       </c>
       <c r="AD13" t="n">
-        <v>-111</v>
+        <v>-111.0</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AF13" t="n">
-        <v>-125</v>
+        <v>-125.0</v>
       </c>
       <c r="AG13" t="n">
-        <v>-327</v>
+        <v>-327.0</v>
       </c>
       <c r="AH13" t="n">
-        <v>-370</v>
+        <v>-370.0</v>
       </c>
       <c r="AI13" t="n">
-        <v>-302</v>
+        <v>-302.0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-84</v>
+        <v>-84.0</v>
       </c>
       <c r="AK13" t="n">
-        <v>-48</v>
+        <v>-48.0</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AM13" t="n">
-        <v>-916</v>
+        <v>-916.0</v>
       </c>
       <c r="AN13" t="n">
-        <v>-52</v>
+        <v>-52.0</v>
       </c>
       <c r="AO13" t="n">
-        <v>-613</v>
+        <v>-613.0</v>
       </c>
       <c r="AP13" t="n">
-        <v>-48</v>
+        <v>-48.0</v>
       </c>
       <c r="AQ13" t="n">
-        <v>-1561</v>
+        <v>-1561.0</v>
       </c>
       <c r="AR13" t="n">
-        <v>-2747</v>
+        <v>-2747.0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AT13" t="n">
-        <v>-42</v>
+        <v>-42.0</v>
       </c>
       <c r="AU13" t="n">
-        <v>-82</v>
+        <v>-82.0</v>
       </c>
       <c r="AV13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AW13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AX13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AY13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="AZ13" t="n">
-        <v>-108</v>
+        <v>-108.0</v>
       </c>
       <c r="BA13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BB13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BC13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BD13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BE13" t="n">
-        <v>-729</v>
+        <v>-729.0</v>
       </c>
       <c r="BF13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BG13" t="n">
-        <v>-261</v>
+        <v>-261.0</v>
       </c>
       <c r="BH13" t="n">
-        <v>-82</v>
+        <v>-82.0</v>
       </c>
       <c r="BI13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BK13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BL13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BM13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BN13" t="n">
-        <v>-41</v>
+        <v>-41.0</v>
       </c>
       <c r="BO13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BP13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14" t="n">
-        <v>354666</v>
+        <v>354666.0</v>
       </c>
       <c r="C14" t="n">
-        <v>150854</v>
+        <v>150854.0</v>
       </c>
       <c r="D14" t="n">
-        <v>33300</v>
+        <v>33300.0</v>
       </c>
       <c r="E14" t="n">
-        <v>18284</v>
+        <v>18284.0</v>
       </c>
       <c r="F14" t="n">
-        <v>125532</v>
+        <v>125532.0</v>
       </c>
       <c r="G14" t="n">
-        <v>48914</v>
+        <v>48914.0</v>
       </c>
       <c r="H14" t="n">
-        <v>15083</v>
+        <v>15083.0</v>
       </c>
       <c r="I14" t="n">
-        <v>272384</v>
+        <v>272384.0</v>
       </c>
       <c r="J14" t="n">
-        <v>61138</v>
+        <v>61138.0</v>
       </c>
       <c r="K14" t="n">
-        <v>281307</v>
+        <v>281307.0</v>
       </c>
       <c r="L14" t="n">
-        <v>74488</v>
+        <v>74488.0</v>
       </c>
       <c r="M14" t="n">
-        <v>14809</v>
+        <v>14809.0</v>
       </c>
       <c r="N14" t="n">
-        <v>46745</v>
+        <v>46745.0</v>
       </c>
       <c r="O14" t="n">
-        <v>62024</v>
+        <v>62024.0</v>
       </c>
       <c r="P14" t="n">
-        <v>41936</v>
+        <v>41936.0</v>
       </c>
       <c r="Q14" t="n">
-        <v>26152</v>
+        <v>26152.0</v>
       </c>
       <c r="R14" t="n">
-        <v>87031</v>
+        <v>87031.0</v>
       </c>
       <c r="S14" t="n">
-        <v>20676</v>
+        <v>20676.0</v>
       </c>
       <c r="T14" t="n">
-        <v>368245</v>
+        <v>368245.0</v>
       </c>
       <c r="U14" t="n">
-        <v>48833</v>
+        <v>48833.0</v>
       </c>
       <c r="V14" t="n">
-        <v>149575</v>
+        <v>149575.0</v>
       </c>
       <c r="W14" t="n">
-        <v>76815</v>
+        <v>76815.0</v>
       </c>
       <c r="X14" t="n">
-        <v>43781</v>
+        <v>43781.0</v>
       </c>
       <c r="Y14" t="n">
-        <v>61366</v>
+        <v>61366.0</v>
       </c>
       <c r="Z14" t="n">
-        <v>102658</v>
+        <v>102658.0</v>
       </c>
       <c r="AA14" t="n">
-        <v>81004</v>
+        <v>81004.0</v>
       </c>
       <c r="AB14" t="n">
-        <v>93500</v>
+        <v>93500.0</v>
       </c>
       <c r="AC14" t="n">
-        <v>54303</v>
+        <v>54303.0</v>
       </c>
       <c r="AD14" t="n">
-        <v>89229</v>
+        <v>89229.0</v>
       </c>
       <c r="AE14" t="n">
-        <v>77134</v>
+        <v>77134.0</v>
       </c>
       <c r="AF14" t="n">
-        <v>72649</v>
+        <v>72649.0</v>
       </c>
       <c r="AG14" t="n">
-        <v>108932</v>
+        <v>108932.0</v>
       </c>
       <c r="AH14" t="n">
-        <v>133478</v>
+        <v>133478.0</v>
       </c>
       <c r="AI14" t="n">
-        <v>73683</v>
+        <v>73683.0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>45631</v>
+        <v>45631.0</v>
       </c>
       <c r="AK14" t="n">
-        <v>67590</v>
+        <v>67590.0</v>
       </c>
       <c r="AL14" t="n">
-        <v>64049</v>
+        <v>64049.0</v>
       </c>
       <c r="AM14" t="n">
-        <v>253973</v>
+        <v>253973.0</v>
       </c>
       <c r="AN14" t="n">
-        <v>71501</v>
+        <v>71501.0</v>
       </c>
       <c r="AO14" t="n">
-        <v>590496</v>
+        <v>590496.0</v>
       </c>
       <c r="AP14" t="n">
-        <v>152921</v>
+        <v>152921.0</v>
       </c>
       <c r="AQ14" t="n">
-        <v>982596</v>
+        <v>982596.0</v>
       </c>
       <c r="AR14" t="n">
-        <v>335326</v>
+        <v>335326.0</v>
       </c>
       <c r="AS14" t="n">
-        <v>20245</v>
+        <v>20245.0</v>
       </c>
       <c r="AT14" t="n">
-        <v>38908</v>
+        <v>38908.0</v>
       </c>
       <c r="AU14" t="n">
-        <v>119965</v>
+        <v>119965.0</v>
       </c>
       <c r="AV14" t="n">
-        <v>25233</v>
+        <v>25233.0</v>
       </c>
       <c r="AW14" t="n">
-        <v>235420</v>
+        <v>235420.0</v>
       </c>
       <c r="AX14" t="n">
-        <v>18970</v>
+        <v>18970.0</v>
       </c>
       <c r="AY14" t="n">
-        <v>43151</v>
+        <v>43151.0</v>
       </c>
       <c r="AZ14" t="n">
-        <v>160653</v>
+        <v>160653.0</v>
       </c>
       <c r="BA14" t="n">
-        <v>131790</v>
+        <v>131790.0</v>
       </c>
       <c r="BB14" t="n">
-        <v>641795</v>
+        <v>641795.0</v>
       </c>
       <c r="BC14" t="n">
-        <v>578082</v>
+        <v>578082.0</v>
       </c>
       <c r="BD14" t="n">
-        <v>206751</v>
+        <v>206751.0</v>
       </c>
       <c r="BE14" t="n">
-        <v>64652</v>
+        <v>64652.0</v>
       </c>
       <c r="BF14" t="n">
-        <v>99586</v>
+        <v>99586.0</v>
       </c>
       <c r="BG14" t="n">
-        <v>43370</v>
+        <v>43370.0</v>
       </c>
       <c r="BH14" t="n">
-        <v>227887</v>
+        <v>227887.0</v>
       </c>
       <c r="BI14" t="n">
-        <v>41171</v>
+        <v>41171.0</v>
       </c>
       <c r="BJ14" t="n">
-        <v>776526</v>
+        <v>776526.0</v>
       </c>
       <c r="BK14" t="n">
-        <v>326443</v>
+        <v>326443.0</v>
       </c>
       <c r="BL14" t="n">
-        <v>122070</v>
+        <v>122070.0</v>
       </c>
       <c r="BM14" t="n">
-        <v>190139</v>
+        <v>190139.0</v>
       </c>
       <c r="BN14" t="n">
-        <v>244879</v>
+        <v>244879.0</v>
       </c>
       <c r="BO14" t="n">
-        <v>36907</v>
+        <v>36907.0</v>
       </c>
       <c r="BP14" t="n">
-        <v>144605</v>
+        <v>144605.0</v>
       </c>
       <c r="BQ14" t="n">
-        <v>68278</v>
+        <v>68278.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B15" t="n">
-        <v>6132306</v>
+        <v>6132306.0</v>
       </c>
       <c r="C15" t="n">
-        <v>6109866</v>
+        <v>6109866.0</v>
       </c>
       <c r="D15" t="n">
-        <v>864515</v>
+        <v>864515.0</v>
       </c>
       <c r="E15" t="n">
-        <v>117548</v>
+        <v>117548.0</v>
       </c>
       <c r="F15" t="n">
-        <v>55684</v>
+        <v>55684.0</v>
       </c>
       <c r="G15" t="n">
-        <v>39259</v>
+        <v>39259.0</v>
       </c>
       <c r="H15" t="n">
-        <v>31040</v>
+        <v>31040.0</v>
       </c>
       <c r="I15" t="n">
-        <v>725942</v>
+        <v>725942.0</v>
       </c>
       <c r="J15" t="n">
-        <v>164574</v>
+        <v>164574.0</v>
       </c>
       <c r="K15" t="n">
-        <v>1201206</v>
+        <v>1201206.0</v>
       </c>
       <c r="L15" t="n">
-        <v>182404</v>
+        <v>182404.0</v>
       </c>
       <c r="M15" t="n">
-        <v>18372</v>
+        <v>18372.0</v>
       </c>
       <c r="N15" t="n">
-        <v>583638</v>
+        <v>583638.0</v>
       </c>
       <c r="O15" t="n">
-        <v>1606808</v>
+        <v>1606808.0</v>
       </c>
       <c r="P15" t="n">
-        <v>476981</v>
+        <v>476981.0</v>
       </c>
       <c r="Q15" t="n">
-        <v>362686</v>
+        <v>362686.0</v>
       </c>
       <c r="R15" t="n">
-        <v>199189</v>
+        <v>199189.0</v>
       </c>
       <c r="S15" t="n">
-        <v>182475</v>
+        <v>182475.0</v>
       </c>
       <c r="T15" t="n">
-        <v>23208</v>
+        <v>23208.0</v>
       </c>
       <c r="U15" t="n">
-        <v>110307</v>
+        <v>110307.0</v>
       </c>
       <c r="V15" t="n">
-        <v>97588</v>
+        <v>97588.0</v>
       </c>
       <c r="W15" t="n">
-        <v>93744</v>
+        <v>93744.0</v>
       </c>
       <c r="X15" t="n">
-        <v>131421</v>
+        <v>131421.0</v>
       </c>
       <c r="Y15" t="n">
-        <v>100973</v>
+        <v>100973.0</v>
       </c>
       <c r="Z15" t="n">
-        <v>429065</v>
+        <v>429065.0</v>
       </c>
       <c r="AA15" t="n">
-        <v>580092</v>
+        <v>580092.0</v>
       </c>
       <c r="AB15" t="n">
-        <v>117071</v>
+        <v>117071.0</v>
       </c>
       <c r="AC15" t="n">
-        <v>97814</v>
+        <v>97814.0</v>
       </c>
       <c r="AD15" t="n">
-        <v>678998</v>
+        <v>678998.0</v>
       </c>
       <c r="AE15" t="n">
-        <v>129596</v>
+        <v>129596.0</v>
       </c>
       <c r="AF15" t="n">
-        <v>207995</v>
+        <v>207995.0</v>
       </c>
       <c r="AG15" t="n">
-        <v>374626</v>
+        <v>374626.0</v>
       </c>
       <c r="AH15" t="n">
-        <v>152525</v>
+        <v>152525.0</v>
       </c>
       <c r="AI15" t="n">
-        <v>276949</v>
+        <v>276949.0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>96382</v>
+        <v>96382.0</v>
       </c>
       <c r="AK15" t="n">
-        <v>715070</v>
+        <v>715070.0</v>
       </c>
       <c r="AL15" t="n">
-        <v>474101</v>
+        <v>474101.0</v>
       </c>
       <c r="AM15" t="n">
-        <v>157706</v>
+        <v>157706.0</v>
       </c>
       <c r="AN15" t="n">
-        <v>510893</v>
+        <v>510893.0</v>
       </c>
       <c r="AO15" t="n">
-        <v>8033881</v>
+        <v>8033881.0</v>
       </c>
       <c r="AP15" t="n">
-        <v>2838349</v>
+        <v>2838349.0</v>
       </c>
       <c r="AQ15" t="n">
-        <v>15685222</v>
+        <v>1.5685222E7</v>
       </c>
       <c r="AR15" t="n">
-        <v>3807471</v>
+        <v>3807471.0</v>
       </c>
       <c r="AS15" t="n">
-        <v>55347</v>
+        <v>55347.0</v>
       </c>
       <c r="AT15" t="n">
-        <v>63098</v>
+        <v>63098.0</v>
       </c>
       <c r="AU15" t="n">
-        <v>792431</v>
+        <v>792431.0</v>
       </c>
       <c r="AV15" t="n">
-        <v>428549</v>
+        <v>428549.0</v>
       </c>
       <c r="AW15" t="n">
-        <v>4957769</v>
+        <v>4957769.0</v>
       </c>
       <c r="AX15" t="n">
-        <v>149279</v>
+        <v>149279.0</v>
       </c>
       <c r="AY15" t="n">
-        <v>169552</v>
+        <v>169552.0</v>
       </c>
       <c r="AZ15" t="n">
-        <v>226782</v>
+        <v>226782.0</v>
       </c>
       <c r="BA15" t="n">
-        <v>763554</v>
+        <v>763554.0</v>
       </c>
       <c r="BB15" t="n">
-        <v>1209240</v>
+        <v>1209240.0</v>
       </c>
       <c r="BC15" t="n">
-        <v>435766</v>
+        <v>435766.0</v>
       </c>
       <c r="BD15" t="n">
-        <v>1744016</v>
+        <v>1744016.0</v>
       </c>
       <c r="BE15" t="n">
-        <v>572474</v>
+        <v>572474.0</v>
       </c>
       <c r="BF15" t="n">
-        <v>515017</v>
+        <v>515017.0</v>
       </c>
       <c r="BG15" t="n">
-        <v>314617</v>
+        <v>314617.0</v>
       </c>
       <c r="BH15" t="n">
-        <v>4029258</v>
+        <v>4029258.0</v>
       </c>
       <c r="BI15" t="n">
-        <v>815707</v>
+        <v>815707.0</v>
       </c>
       <c r="BJ15" t="n">
-        <v>4982696</v>
+        <v>4982696.0</v>
       </c>
       <c r="BK15" t="n">
-        <v>4089618</v>
+        <v>4089618.0</v>
       </c>
       <c r="BL15" t="n">
-        <v>2508248</v>
+        <v>2508248.0</v>
       </c>
       <c r="BM15" t="n">
-        <v>2050964</v>
+        <v>2050964.0</v>
       </c>
       <c r="BN15" t="n">
-        <v>3044236</v>
+        <v>3044236.0</v>
       </c>
       <c r="BO15" t="n">
-        <v>993679</v>
+        <v>993679.0</v>
       </c>
       <c r="BP15" t="n">
-        <v>4006112</v>
+        <v>4006112.0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>6468845</v>
+        <v>6468845.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>